--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.7920028995591</v>
+        <v>21.79200289955908</v>
       </c>
       <c r="C2">
-        <v>20.64302664121744</v>
+        <v>20.64302664121738</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.325326561414806</v>
+        <v>5.32532656141486</v>
       </c>
       <c r="F2">
-        <v>36.92647495023643</v>
+        <v>36.92647495023642</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>26.88941641848602</v>
+        <v>26.88941641848601</v>
       </c>
       <c r="I2">
-        <v>11.58720806001769</v>
+        <v>11.58720806001777</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.202699615986</v>
+        <v>17.20269961598598</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.22820965783233</v>
+        <v>20.2282096578324</v>
       </c>
       <c r="C3">
-        <v>19.12351912994054</v>
+        <v>19.12351912994031</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.026603957894281</v>
+        <v>5.026603957894437</v>
       </c>
       <c r="F3">
-        <v>34.51350074638556</v>
+        <v>34.51350074638551</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.69901062756456</v>
+        <v>25.69901062756449</v>
       </c>
       <c r="I3">
-        <v>11.42086667535501</v>
+        <v>11.42086667535498</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.06133245359204</v>
+        <v>16.06133245359208</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.22180337749347</v>
+        <v>19.22180337749352</v>
       </c>
       <c r="C4">
-        <v>18.14819505398588</v>
+        <v>18.14819505398579</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.833421909329195</v>
+        <v>4.833421909329174</v>
       </c>
       <c r="F4">
-        <v>32.98525893009933</v>
+        <v>32.98525893009926</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.97268836897211</v>
+        <v>24.97268836897194</v>
       </c>
       <c r="I4">
-        <v>11.32872654590834</v>
+        <v>11.3287265459084</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.32778995133741</v>
+        <v>15.3277899513374</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>18.79978816426861</v>
       </c>
       <c r="C5">
-        <v>17.73980277078562</v>
+        <v>17.7398027707855</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.752260804217563</v>
+        <v>4.752260804217602</v>
       </c>
       <c r="F5">
-        <v>32.35092595248692</v>
+        <v>32.3509259524869</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.67795760249097</v>
+        <v>24.6779576024909</v>
       </c>
       <c r="I5">
-        <v>11.29350943424131</v>
+        <v>11.29350943424138</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.02049703310571</v>
+        <v>15.02049703310569</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72898680783756</v>
+        <v>18.7289868078376</v>
       </c>
       <c r="C6">
-        <v>17.67132071449441</v>
+        <v>17.6713207144945</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.738637452966455</v>
+        <v>4.738637452966407</v>
       </c>
       <c r="F6">
-        <v>32.24490500571673</v>
+        <v>32.24490500571674</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>24.62909721698828</v>
       </c>
       <c r="I6">
-        <v>11.28779727625623</v>
+        <v>11.28779727625624</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.96896233695897</v>
+        <v>14.96896233695901</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.21616044485442</v>
+        <v>19.21616044485432</v>
       </c>
       <c r="C7">
-        <v>18.14273199710793</v>
+        <v>18.14273199710809</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.832337185632123</v>
+        <v>4.832337185632227</v>
       </c>
       <c r="F7">
-        <v>32.97675057404539</v>
+        <v>32.97675057404535</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.96870829263909</v>
+        <v>24.96870829263914</v>
       </c>
       <c r="I7">
-        <v>11.32824239266152</v>
+        <v>11.32824239266151</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.32367973734471</v>
+        <v>15.32367973734476</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.26223177900831</v>
+        <v>21.2622317790082</v>
       </c>
       <c r="C8">
-        <v>20.12770345899703</v>
+        <v>20.12770345899708</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.224362711121079</v>
+        <v>5.224362711121112</v>
       </c>
       <c r="F8">
-        <v>36.10422580915908</v>
+        <v>36.10422580915905</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.47805146254858</v>
+        <v>26.47805146254864</v>
       </c>
       <c r="I8">
-        <v>11.52766631453292</v>
+        <v>11.52766631453291</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.81586147873472</v>
+        <v>16.8158614787347</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.92130798649487</v>
+        <v>24.92130798649488</v>
       </c>
       <c r="C9">
-        <v>23.69904226145826</v>
+        <v>23.69904226145807</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.915116458368082</v>
+        <v>5.915116458368076</v>
       </c>
       <c r="F9">
         <v>42.0523751936522</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.473572263651</v>
+        <v>29.47357226365109</v>
       </c>
       <c r="I9">
-        <v>12.00685778403687</v>
+        <v>12.00685778403691</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.48975404817799</v>
+        <v>19.48975404817798</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.4156267807845</v>
+        <v>27.41562678078449</v>
       </c>
       <c r="C10">
-        <v>26.15055714043493</v>
+        <v>26.15055714043508</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.374601621397605</v>
+        <v>6.374601621397597</v>
       </c>
       <c r="F10">
-        <v>46.27761119156753</v>
+        <v>46.27761119156767</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31.70151496050093</v>
+        <v>31.70151496050113</v>
       </c>
       <c r="I10">
-        <v>12.42614673454229</v>
+        <v>12.42614673454236</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.31305988961919</v>
+        <v>21.3130598896192</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.51385314926967</v>
+        <v>28.5138531492697</v>
       </c>
       <c r="C11">
         <v>27.23462713597855</v>
@@ -763,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.573147792044042</v>
+        <v>6.573147792043995</v>
       </c>
       <c r="F11">
-        <v>48.14727750722729</v>
+        <v>48.14727750722727</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32.7242119727198</v>
+        <v>32.72421197271974</v>
       </c>
       <c r="I11">
         <v>12.63496010079982</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.92503759485407</v>
+        <v>28.92503759485401</v>
       </c>
       <c r="C12">
-        <v>27.64128061142782</v>
+        <v>27.64128061142783</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.646819768775261</v>
+        <v>6.646819768775172</v>
       </c>
       <c r="F12">
-        <v>48.84848485607026</v>
+        <v>48.84848485607014</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>33.1132390198905</v>
+        <v>33.1132390198903</v>
       </c>
       <c r="I12">
-        <v>12.71697294636478</v>
+        <v>12.7169729463647</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.415597587559</v>
+        <v>22.41559758755895</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.83668048897812</v>
+        <v>28.83668048897831</v>
       </c>
       <c r="C13">
-        <v>27.55386123570987</v>
+        <v>27.55386123570997</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.631020616202789</v>
+        <v>6.631020616202624</v>
       </c>
       <c r="F13">
-        <v>48.69775599342076</v>
+        <v>48.69775599342085</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33.02936855992424</v>
+        <v>33.02936855992436</v>
       </c>
       <c r="I13">
-        <v>12.69917324662634</v>
+        <v>12.69917324662635</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.35108500666606</v>
+        <v>22.35108500666605</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.54777205136804</v>
+        <v>28.54777205136801</v>
       </c>
       <c r="C14">
-        <v>27.26815621872864</v>
+        <v>27.26815621872873</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.579239200936267</v>
+        <v>6.579239200936161</v>
       </c>
       <c r="F14">
-        <v>48.2050976220111</v>
+        <v>48.20509762201112</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32.75617929360927</v>
+        <v>32.75617929360939</v>
       </c>
       <c r="I14">
-        <v>12.64164628244318</v>
+        <v>12.64164628244329</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.14011681674589</v>
+        <v>22.14011681674586</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.37021442542604</v>
+        <v>28.37021442542597</v>
       </c>
       <c r="C15">
-        <v>27.09267101472552</v>
+        <v>27.09267101472549</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.547324301646762</v>
+        <v>6.547324301646709</v>
       </c>
       <c r="F15">
-        <v>47.90246997011606</v>
+        <v>47.90246997011601</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32.58908679423675</v>
+        <v>32.58908679423684</v>
       </c>
       <c r="I15">
-        <v>12.60680323780393</v>
+        <v>12.60680323780397</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.01044086043803</v>
+        <v>22.01044086043797</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.34316676678214</v>
+        <v>27.34316676678216</v>
       </c>
       <c r="C16">
-        <v>26.07913452224064</v>
+        <v>26.07913452224068</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.36141482115714</v>
+        <v>6.361414821157027</v>
       </c>
       <c r="F16">
-        <v>46.15442937672891</v>
+        <v>46.15442937672894</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31.63489784887588</v>
+        <v>31.63489784887595</v>
       </c>
       <c r="I16">
-        <v>12.41289192747343</v>
+        <v>12.41289192747344</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.26011071276495</v>
+        <v>21.2601107127649</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.7041357289655</v>
+        <v>26.70413572896547</v>
       </c>
       <c r="C17">
-        <v>25.44979594403641</v>
+        <v>25.44979594403636</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.244677897693834</v>
+        <v>6.244677897693906</v>
       </c>
       <c r="F17">
-        <v>45.06911937890806</v>
+        <v>45.069119378908</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31.05215001417776</v>
+        <v>31.05215001417767</v>
       </c>
       <c r="I17">
-        <v>12.29878944736601</v>
+        <v>12.29878944736598</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.79308380560305</v>
+        <v>20.79308380560306</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33311327335691</v>
+        <v>26.33311327335693</v>
       </c>
       <c r="C18">
-        <v>25.08484400865307</v>
+        <v>25.08484400865306</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.176548300068568</v>
+        <v>6.176548300068503</v>
       </c>
       <c r="F18">
-        <v>44.43989120143377</v>
+        <v>44.43989120143382</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30.71780018090483</v>
+        <v>30.71780018090495</v>
       </c>
       <c r="I18">
-        <v>12.23483905867533</v>
+        <v>12.23483905867538</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.52188332328177</v>
+        <v>20.52188332328173</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.20688028409718</v>
+        <v>26.20688028409711</v>
       </c>
       <c r="C19">
-        <v>24.96074974758044</v>
+        <v>24.96074974758042</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.15331169101105</v>
+        <v>6.153311691011108</v>
       </c>
       <c r="F19">
-        <v>44.2259687360514</v>
+        <v>44.22596873605135</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30.6047270844732</v>
+        <v>30.60472708447321</v>
       </c>
       <c r="I19">
-        <v>12.213465287285</v>
+        <v>12.21346528728499</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.4296069274227</v>
+        <v>20.42960692742268</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.77251695451115</v>
+        <v>26.77251695451112</v>
       </c>
       <c r="C20">
-        <v>25.51709365937745</v>
+        <v>25.51709365937753</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.257206792518881</v>
+        <v>6.257206792518994</v>
       </c>
       <c r="F20">
-        <v>45.18516367882175</v>
+        <v>45.18516367882159</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31.11409582425039</v>
+        <v>31.11409582425006</v>
       </c>
       <c r="I20">
-        <v>12.31075985298861</v>
+        <v>12.31075985298841</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.84306420241388</v>
+        <v>20.84306420241394</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.63275389900329</v>
+        <v>28.63275389900335</v>
       </c>
       <c r="C21">
-        <v>27.35217403442019</v>
+        <v>27.35217403442009</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.59448978722204</v>
+        <v>6.594489787222015</v>
       </c>
       <c r="F21">
-        <v>48.34998103744921</v>
+        <v>48.34998103744928</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32.83636980263218</v>
+        <v>32.83636980263221</v>
       </c>
       <c r="I21">
         <v>12.6584605737222</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.20217674671744</v>
+        <v>22.20217674671746</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.82151523610681</v>
+        <v>29.82151523610682</v>
       </c>
       <c r="C22">
-        <v>28.52937156830902</v>
+        <v>28.52937156830913</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.806099056765097</v>
+        <v>6.80609905676515</v>
       </c>
       <c r="F22">
-        <v>50.37922987156133</v>
+        <v>50.37922987156125</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33.97251408513961</v>
+        <v>33.97251408513951</v>
       </c>
       <c r="I22">
-        <v>12.90303930039921</v>
+        <v>12.90303930039915</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.06991213600417</v>
+        <v>23.06991213600423</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.18931525669043</v>
+        <v>29.18931525669048</v>
       </c>
       <c r="C23">
-        <v>27.90287169001537</v>
+        <v>27.90287169001536</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.693969471387273</v>
+        <v>6.693969471387279</v>
       </c>
       <c r="F23">
-        <v>49.29947553334483</v>
+        <v>49.29947553334492</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33.36498430691352</v>
+        <v>33.36498430691358</v>
       </c>
       <c r="I23">
-        <v>12.77078904721927</v>
+        <v>12.77078904721929</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.60853227852445</v>
+        <v>22.60853227852446</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.74161316494231</v>
+        <v>26.74161316494218</v>
       </c>
       <c r="C24">
-        <v>25.48667817765137</v>
+        <v>25.48667817765143</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.251545643304235</v>
+        <v>6.251545643304274</v>
       </c>
       <c r="F24">
-        <v>45.13271651652207</v>
+        <v>45.13271651652198</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31.08608803707329</v>
+        <v>31.08608803707327</v>
       </c>
       <c r="I24">
-        <v>12.30534292241849</v>
+        <v>12.30534292241852</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.82047650172488</v>
+        <v>20.82047650172485</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.96720451809314</v>
+        <v>23.96720451809326</v>
       </c>
       <c r="C25">
         <v>22.7650481380549</v>
@@ -1295,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.736657256715382</v>
+        <v>5.736657256715229</v>
       </c>
       <c r="F25">
-        <v>40.4457817473636</v>
+        <v>40.44578174736373</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28.65916490490952</v>
+        <v>28.65916490490967</v>
       </c>
       <c r="I25">
-        <v>11.86647947218168</v>
+        <v>11.86647947218178</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79200289955908</v>
+        <v>21.7920028995591</v>
       </c>
       <c r="C2">
-        <v>20.64302664121738</v>
+        <v>20.64302664121744</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.32532656141486</v>
+        <v>5.325326561414806</v>
       </c>
       <c r="F2">
-        <v>36.92647495023642</v>
+        <v>36.92647495023643</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>26.88941641848601</v>
+        <v>26.88941641848602</v>
       </c>
       <c r="I2">
-        <v>11.58720806001777</v>
+        <v>11.58720806001769</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.20269961598598</v>
+        <v>17.202699615986</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.2282096578324</v>
+        <v>20.22820965783233</v>
       </c>
       <c r="C3">
-        <v>19.12351912994031</v>
+        <v>19.12351912994054</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.026603957894437</v>
+        <v>5.026603957894281</v>
       </c>
       <c r="F3">
-        <v>34.51350074638551</v>
+        <v>34.51350074638556</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.69901062756449</v>
+        <v>25.69901062756456</v>
       </c>
       <c r="I3">
-        <v>11.42086667535498</v>
+        <v>11.42086667535501</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.06133245359208</v>
+        <v>16.06133245359204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.22180337749352</v>
+        <v>19.22180337749347</v>
       </c>
       <c r="C4">
-        <v>18.14819505398579</v>
+        <v>18.14819505398588</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.833421909329174</v>
+        <v>4.833421909329195</v>
       </c>
       <c r="F4">
-        <v>32.98525893009926</v>
+        <v>32.98525893009933</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.97268836897194</v>
+        <v>24.97268836897211</v>
       </c>
       <c r="I4">
-        <v>11.3287265459084</v>
+        <v>11.32872654590834</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.3277899513374</v>
+        <v>15.32778995133741</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>18.79978816426861</v>
       </c>
       <c r="C5">
-        <v>17.7398027707855</v>
+        <v>17.73980277078562</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.752260804217602</v>
+        <v>4.752260804217563</v>
       </c>
       <c r="F5">
-        <v>32.3509259524869</v>
+        <v>32.35092595248692</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.6779576024909</v>
+        <v>24.67795760249097</v>
       </c>
       <c r="I5">
-        <v>11.29350943424138</v>
+        <v>11.29350943424131</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.02049703310569</v>
+        <v>15.02049703310571</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.7289868078376</v>
+        <v>18.72898680783756</v>
       </c>
       <c r="C6">
-        <v>17.6713207144945</v>
+        <v>17.67132071449441</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.738637452966407</v>
+        <v>4.738637452966455</v>
       </c>
       <c r="F6">
-        <v>32.24490500571674</v>
+        <v>32.24490500571673</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>24.62909721698828</v>
       </c>
       <c r="I6">
-        <v>11.28779727625624</v>
+        <v>11.28779727625623</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.96896233695901</v>
+        <v>14.96896233695897</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.21616044485432</v>
+        <v>19.21616044485442</v>
       </c>
       <c r="C7">
-        <v>18.14273199710809</v>
+        <v>18.14273199710793</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.832337185632227</v>
+        <v>4.832337185632123</v>
       </c>
       <c r="F7">
-        <v>32.97675057404535</v>
+        <v>32.97675057404539</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.96870829263914</v>
+        <v>24.96870829263909</v>
       </c>
       <c r="I7">
-        <v>11.32824239266151</v>
+        <v>11.32824239266152</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.32367973734476</v>
+        <v>15.32367973734471</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.2622317790082</v>
+        <v>21.26223177900831</v>
       </c>
       <c r="C8">
-        <v>20.12770345899708</v>
+        <v>20.12770345899703</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.224362711121112</v>
+        <v>5.224362711121079</v>
       </c>
       <c r="F8">
-        <v>36.10422580915905</v>
+        <v>36.10422580915908</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.47805146254864</v>
+        <v>26.47805146254858</v>
       </c>
       <c r="I8">
-        <v>11.52766631453291</v>
+        <v>11.52766631453292</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.8158614787347</v>
+        <v>16.81586147873472</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.92130798649488</v>
+        <v>24.92130798649487</v>
       </c>
       <c r="C9">
-        <v>23.69904226145807</v>
+        <v>23.69904226145826</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.915116458368076</v>
+        <v>5.915116458368082</v>
       </c>
       <c r="F9">
         <v>42.0523751936522</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.47357226365109</v>
+        <v>29.473572263651</v>
       </c>
       <c r="I9">
-        <v>12.00685778403691</v>
+        <v>12.00685778403687</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.48975404817798</v>
+        <v>19.48975404817799</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.41562678078449</v>
+        <v>27.4156267807845</v>
       </c>
       <c r="C10">
-        <v>26.15055714043508</v>
+        <v>26.15055714043493</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.374601621397597</v>
+        <v>6.374601621397605</v>
       </c>
       <c r="F10">
-        <v>46.27761119156767</v>
+        <v>46.27761119156753</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31.70151496050113</v>
+        <v>31.70151496050093</v>
       </c>
       <c r="I10">
-        <v>12.42614673454236</v>
+        <v>12.42614673454229</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.3130598896192</v>
+        <v>21.31305988961919</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.5138531492697</v>
+        <v>28.51385314926967</v>
       </c>
       <c r="C11">
         <v>27.23462713597855</v>
@@ -763,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.573147792043995</v>
+        <v>6.573147792044042</v>
       </c>
       <c r="F11">
-        <v>48.14727750722727</v>
+        <v>48.14727750722729</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32.72421197271974</v>
+        <v>32.7242119727198</v>
       </c>
       <c r="I11">
         <v>12.63496010079982</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.92503759485401</v>
+        <v>28.92503759485407</v>
       </c>
       <c r="C12">
-        <v>27.64128061142783</v>
+        <v>27.64128061142782</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.646819768775172</v>
+        <v>6.646819768775261</v>
       </c>
       <c r="F12">
-        <v>48.84848485607014</v>
+        <v>48.84848485607026</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>33.1132390198903</v>
+        <v>33.1132390198905</v>
       </c>
       <c r="I12">
-        <v>12.7169729463647</v>
+        <v>12.71697294636478</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.41559758755895</v>
+        <v>22.415597587559</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.83668048897831</v>
+        <v>28.83668048897812</v>
       </c>
       <c r="C13">
-        <v>27.55386123570997</v>
+        <v>27.55386123570987</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.631020616202624</v>
+        <v>6.631020616202789</v>
       </c>
       <c r="F13">
-        <v>48.69775599342085</v>
+        <v>48.69775599342076</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33.02936855992436</v>
+        <v>33.02936855992424</v>
       </c>
       <c r="I13">
-        <v>12.69917324662635</v>
+        <v>12.69917324662634</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.35108500666605</v>
+        <v>22.35108500666606</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.54777205136801</v>
+        <v>28.54777205136804</v>
       </c>
       <c r="C14">
-        <v>27.26815621872873</v>
+        <v>27.26815621872864</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.579239200936161</v>
+        <v>6.579239200936267</v>
       </c>
       <c r="F14">
-        <v>48.20509762201112</v>
+        <v>48.2050976220111</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32.75617929360939</v>
+        <v>32.75617929360927</v>
       </c>
       <c r="I14">
-        <v>12.64164628244329</v>
+        <v>12.64164628244318</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.14011681674586</v>
+        <v>22.14011681674589</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.37021442542597</v>
+        <v>28.37021442542604</v>
       </c>
       <c r="C15">
-        <v>27.09267101472549</v>
+        <v>27.09267101472552</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.547324301646709</v>
+        <v>6.547324301646762</v>
       </c>
       <c r="F15">
-        <v>47.90246997011601</v>
+        <v>47.90246997011606</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32.58908679423684</v>
+        <v>32.58908679423675</v>
       </c>
       <c r="I15">
-        <v>12.60680323780397</v>
+        <v>12.60680323780393</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.01044086043797</v>
+        <v>22.01044086043803</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.34316676678216</v>
+        <v>27.34316676678214</v>
       </c>
       <c r="C16">
-        <v>26.07913452224068</v>
+        <v>26.07913452224064</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.361414821157027</v>
+        <v>6.36141482115714</v>
       </c>
       <c r="F16">
-        <v>46.15442937672894</v>
+        <v>46.15442937672891</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31.63489784887595</v>
+        <v>31.63489784887588</v>
       </c>
       <c r="I16">
-        <v>12.41289192747344</v>
+        <v>12.41289192747343</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.2601107127649</v>
+        <v>21.26011071276495</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.70413572896547</v>
+        <v>26.7041357289655</v>
       </c>
       <c r="C17">
-        <v>25.44979594403636</v>
+        <v>25.44979594403641</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.244677897693906</v>
+        <v>6.244677897693834</v>
       </c>
       <c r="F17">
-        <v>45.069119378908</v>
+        <v>45.06911937890806</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31.05215001417767</v>
+        <v>31.05215001417776</v>
       </c>
       <c r="I17">
-        <v>12.29878944736598</v>
+        <v>12.29878944736601</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.79308380560306</v>
+        <v>20.79308380560305</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33311327335693</v>
+        <v>26.33311327335691</v>
       </c>
       <c r="C18">
-        <v>25.08484400865306</v>
+        <v>25.08484400865307</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.176548300068503</v>
+        <v>6.176548300068568</v>
       </c>
       <c r="F18">
-        <v>44.43989120143382</v>
+        <v>44.43989120143377</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30.71780018090495</v>
+        <v>30.71780018090483</v>
       </c>
       <c r="I18">
-        <v>12.23483905867538</v>
+        <v>12.23483905867533</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.52188332328173</v>
+        <v>20.52188332328177</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.20688028409711</v>
+        <v>26.20688028409718</v>
       </c>
       <c r="C19">
-        <v>24.96074974758042</v>
+        <v>24.96074974758044</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.153311691011108</v>
+        <v>6.15331169101105</v>
       </c>
       <c r="F19">
-        <v>44.22596873605135</v>
+        <v>44.2259687360514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30.60472708447321</v>
+        <v>30.6047270844732</v>
       </c>
       <c r="I19">
-        <v>12.21346528728499</v>
+        <v>12.213465287285</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.42960692742268</v>
+        <v>20.4296069274227</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.77251695451112</v>
+        <v>26.77251695451115</v>
       </c>
       <c r="C20">
-        <v>25.51709365937753</v>
+        <v>25.51709365937745</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.257206792518994</v>
+        <v>6.257206792518881</v>
       </c>
       <c r="F20">
-        <v>45.18516367882159</v>
+        <v>45.18516367882175</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31.11409582425006</v>
+        <v>31.11409582425039</v>
       </c>
       <c r="I20">
-        <v>12.31075985298841</v>
+        <v>12.31075985298861</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.84306420241394</v>
+        <v>20.84306420241388</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.63275389900335</v>
+        <v>28.63275389900329</v>
       </c>
       <c r="C21">
-        <v>27.35217403442009</v>
+        <v>27.35217403442019</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.594489787222015</v>
+        <v>6.59448978722204</v>
       </c>
       <c r="F21">
-        <v>48.34998103744928</v>
+        <v>48.34998103744921</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32.83636980263221</v>
+        <v>32.83636980263218</v>
       </c>
       <c r="I21">
         <v>12.6584605737222</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.20217674671746</v>
+        <v>22.20217674671744</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.82151523610682</v>
+        <v>29.82151523610681</v>
       </c>
       <c r="C22">
-        <v>28.52937156830913</v>
+        <v>28.52937156830902</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.80609905676515</v>
+        <v>6.806099056765097</v>
       </c>
       <c r="F22">
-        <v>50.37922987156125</v>
+        <v>50.37922987156133</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33.97251408513951</v>
+        <v>33.97251408513961</v>
       </c>
       <c r="I22">
-        <v>12.90303930039915</v>
+        <v>12.90303930039921</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.06991213600423</v>
+        <v>23.06991213600417</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.18931525669048</v>
+        <v>29.18931525669043</v>
       </c>
       <c r="C23">
-        <v>27.90287169001536</v>
+        <v>27.90287169001537</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.693969471387279</v>
+        <v>6.693969471387273</v>
       </c>
       <c r="F23">
-        <v>49.29947553334492</v>
+        <v>49.29947553334483</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33.36498430691358</v>
+        <v>33.36498430691352</v>
       </c>
       <c r="I23">
-        <v>12.77078904721929</v>
+        <v>12.77078904721927</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.60853227852446</v>
+        <v>22.60853227852445</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.74161316494218</v>
+        <v>26.74161316494231</v>
       </c>
       <c r="C24">
-        <v>25.48667817765143</v>
+        <v>25.48667817765137</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.251545643304274</v>
+        <v>6.251545643304235</v>
       </c>
       <c r="F24">
-        <v>45.13271651652198</v>
+        <v>45.13271651652207</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31.08608803707327</v>
+        <v>31.08608803707329</v>
       </c>
       <c r="I24">
-        <v>12.30534292241852</v>
+        <v>12.30534292241849</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.82047650172485</v>
+        <v>20.82047650172488</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.96720451809326</v>
+        <v>23.96720451809314</v>
       </c>
       <c r="C25">
         <v>22.7650481380549</v>
@@ -1295,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.736657256715229</v>
+        <v>5.736657256715382</v>
       </c>
       <c r="F25">
-        <v>40.44578174736373</v>
+        <v>40.4457817473636</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28.65916490490967</v>
+        <v>28.65916490490952</v>
       </c>
       <c r="I25">
-        <v>11.86647947218178</v>
+        <v>11.86647947218168</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.7920028995591</v>
+        <v>21.64550970840449</v>
       </c>
       <c r="C2">
-        <v>20.64302664121744</v>
+        <v>20.48352586732692</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.325326561414806</v>
+        <v>5.488380219830564</v>
       </c>
       <c r="F2">
-        <v>36.92647495023643</v>
+        <v>36.91635398739699</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.050711001895404</v>
       </c>
       <c r="H2">
-        <v>26.88941641848602</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.58720806001769</v>
+        <v>27.06591573203133</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.74278401113312</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.202699615986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.13692668522768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.22820965783233</v>
+        <v>20.08737478203963</v>
       </c>
       <c r="C3">
-        <v>19.12351912994054</v>
+        <v>18.97269883856402</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.026603957894281</v>
+        <v>5.195616861698001</v>
       </c>
       <c r="F3">
-        <v>34.51350074638556</v>
+        <v>34.51752542947528</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.063891134326214</v>
       </c>
       <c r="H3">
-        <v>25.69901062756456</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.42086667535501</v>
+        <v>25.90396182098714</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.58782955065869</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.06133245359204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.99719649466076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.22180337749347</v>
+        <v>19.08452163792875</v>
       </c>
       <c r="C4">
-        <v>18.14819505398588</v>
+        <v>18.00301420097455</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.833421909329195</v>
+        <v>5.006633031254577</v>
       </c>
       <c r="F4">
-        <v>32.98525893009933</v>
+        <v>32.99882371682007</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.072112572371033</v>
       </c>
       <c r="H4">
-        <v>24.97268836897211</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.32872654590834</v>
+        <v>25.196251717017</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.50262322969074</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.32778995133741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.26457669105956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79978816426861</v>
+        <v>18.66397756895748</v>
       </c>
       <c r="C5">
-        <v>17.73980277078562</v>
+        <v>17.59700713649865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.752260804217563</v>
+        <v>4.927325486876845</v>
       </c>
       <c r="F5">
-        <v>32.35092595248692</v>
+        <v>32.36860876804678</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.075499779360018</v>
       </c>
       <c r="H5">
-        <v>24.67795760249097</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.29350943424131</v>
+        <v>24.90938309989949</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.47021729597354</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.02049703310571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.95763863794351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72898680783756</v>
+        <v>18.59342198688614</v>
       </c>
       <c r="C6">
-        <v>17.67132071449441</v>
+        <v>17.52892668966744</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.738637452966455</v>
+        <v>4.914018764238475</v>
       </c>
       <c r="F6">
-        <v>32.24490500571673</v>
+        <v>32.26328598902255</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.076064575330796</v>
       </c>
       <c r="H6">
-        <v>24.62909721698828</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.28779727625623</v>
+        <v>24.86184460551399</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.46497106988097</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.96896233695897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.90616156447369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.21616044485442</v>
+        <v>19.07889844754278</v>
       </c>
       <c r="C7">
-        <v>18.14273199710793</v>
+        <v>17.99758294656731</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.832337185632123</v>
+        <v>5.005572717291017</v>
       </c>
       <c r="F7">
-        <v>32.97675057404539</v>
+        <v>32.99036994451521</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.072158098346288</v>
       </c>
       <c r="H7">
-        <v>24.96870829263909</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.32824239266152</v>
+        <v>25.1923765649139</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.50217704697505</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.32367973734471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.26047134955812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.26223177900831</v>
+        <v>21.11767537828684</v>
       </c>
       <c r="C8">
-        <v>20.12770345899703</v>
+        <v>19.97113684834403</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.224362711121079</v>
+        <v>5.38936326960274</v>
       </c>
       <c r="F8">
-        <v>36.10422580915908</v>
+        <v>36.09881406169357</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.055231649074537</v>
       </c>
       <c r="H8">
-        <v>26.47805146254858</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.52766631453292</v>
+        <v>26.66411941433801</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.6871805054571</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.81586147873472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.75067003961029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.92130798649487</v>
+        <v>24.76289189301275</v>
       </c>
       <c r="C9">
-        <v>23.69904226145826</v>
+        <v>23.52214796080306</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.915116458368082</v>
+        <v>6.067968149746362</v>
       </c>
       <c r="F9">
-        <v>42.0523751936522</v>
+        <v>41.98829482954833</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.022829640145431</v>
       </c>
       <c r="H9">
-        <v>29.473572263651</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.00685778403687</v>
+        <v>29.59516204496745</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.13763171592563</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.48975404817799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.4200013796466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.4156267807845</v>
+        <v>27.24698644858628</v>
       </c>
       <c r="C10">
-        <v>26.15055714043493</v>
+        <v>25.95942857236555</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.374601621397605</v>
+        <v>6.520637789807981</v>
       </c>
       <c r="F10">
-        <v>46.27761119156753</v>
+        <v>46.19582868676135</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.999133353064598</v>
       </c>
       <c r="H10">
-        <v>31.70151496050093</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.42614673454229</v>
+        <v>31.78129937544062</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.53550197688675</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.31305988961919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.23946258643786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.51385314926967</v>
+        <v>28.34045970648878</v>
       </c>
       <c r="C11">
-        <v>27.23462713597855</v>
+        <v>27.03703750600241</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.573147792044042</v>
+        <v>6.716483593709717</v>
       </c>
       <c r="F11">
-        <v>48.14727750722729</v>
+        <v>48.05769108364635</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.9882763372244</v>
       </c>
       <c r="H11">
-        <v>32.7242119727198</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12.63496010079982</v>
+        <v>32.78607840867519</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.73448838181846</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.11534584944262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.03985534492444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.92503759485407</v>
+        <v>28.74981940333485</v>
       </c>
       <c r="C12">
-        <v>27.64128061142782</v>
+        <v>27.44123257089356</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.646819768775261</v>
+        <v>6.789186365575805</v>
       </c>
       <c r="F12">
-        <v>48.84848485607026</v>
+        <v>48.75596089471419</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.984143765715378</v>
       </c>
       <c r="H12">
-        <v>33.1132390198905</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12.71697294636478</v>
+        <v>33.16846334197274</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.81276494562165</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.415597587559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22.33936475709882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.83668048897812</v>
+        <v>28.66185658467356</v>
       </c>
       <c r="C13">
-        <v>27.55386123570987</v>
+        <v>27.3543434294402</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.631020616202789</v>
+        <v>6.773593637540902</v>
       </c>
       <c r="F13">
-        <v>48.69775599342076</v>
+        <v>48.60586421383557</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.98503491472666</v>
       </c>
       <c r="H13">
-        <v>33.02936855992424</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12.69917324662634</v>
+        <v>33.08601731293482</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.79577065804118</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.35108500666606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>22.27501327052831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.54777205136804</v>
+        <v>28.37422905083721</v>
       </c>
       <c r="C14">
-        <v>27.26815621872864</v>
+        <v>27.07036465794748</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.579239200936267</v>
+        <v>6.722494218535018</v>
       </c>
       <c r="F14">
-        <v>48.2050976220111</v>
+        <v>48.11526928437215</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.987936838412662</v>
       </c>
       <c r="H14">
-        <v>32.75617929360927</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12.64164628244318</v>
+        <v>32.81749651658941</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.74086750252864</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.14011681674589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.06456578213826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.37021442542604</v>
+        <v>28.19745243417157</v>
       </c>
       <c r="C15">
-        <v>27.09267101472552</v>
+        <v>26.89593484434478</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.547324301646762</v>
+        <v>6.69100389425556</v>
       </c>
       <c r="F15">
-        <v>47.90246997011606</v>
+        <v>47.81390726874527</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.989711251776341</v>
       </c>
       <c r="H15">
-        <v>32.58908679423675</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>12.60680323780393</v>
+        <v>32.65328168400115</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.70762953810357</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.01044086043803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.93520529664751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.34316676678214</v>
+        <v>27.17483419370291</v>
       </c>
       <c r="C16">
-        <v>26.07913452224064</v>
+        <v>25.88842736495247</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.36141482115714</v>
+        <v>6.507635150462179</v>
       </c>
       <c r="F16">
-        <v>46.15442937672891</v>
+        <v>46.07316038230375</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.999840500372705</v>
       </c>
       <c r="H16">
-        <v>31.63489784887588</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.41289192747343</v>
+        <v>31.715874195196</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.52288748739474</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.26011071276495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.18663386646194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.7041357289655</v>
+        <v>26.53848782653151</v>
       </c>
       <c r="C17">
-        <v>25.44979594403641</v>
+        <v>25.2627819895875</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.244677897693834</v>
+        <v>6.392556264092194</v>
       </c>
       <c r="F17">
-        <v>45.06911937890806</v>
+        <v>44.99237631454875</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.006027959586222</v>
       </c>
       <c r="H17">
-        <v>31.05215001417776</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.29878944736601</v>
+        <v>31.14369367009013</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.41438705861164</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.79308380560305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.72064605907706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33311327335691</v>
+        <v>26.16900065073195</v>
       </c>
       <c r="C18">
-        <v>25.08484400865307</v>
+        <v>24.8999565711662</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.176548300068568</v>
+        <v>6.325418201588663</v>
       </c>
       <c r="F18">
-        <v>44.43989120143377</v>
+        <v>44.36577593884991</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.009580229802923</v>
       </c>
       <c r="H18">
-        <v>30.71780018090483</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.23483905867533</v>
+        <v>30.81552655407633</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.35365122978656</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.52188332328177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.45003001918601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.20688028409718</v>
+        <v>26.04328622835734</v>
       </c>
       <c r="C19">
-        <v>24.96074974758044</v>
+        <v>24.77658308399992</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.15331169101105</v>
+        <v>6.30252394765122</v>
       </c>
       <c r="F19">
-        <v>44.2259687360514</v>
+        <v>44.15274794708832</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.01078211583302</v>
       </c>
       <c r="H19">
-        <v>30.6047270844732</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.213465287285</v>
+        <v>30.70456517763654</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.33336461294403</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.4296069274227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.35794935357909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.77251695451115</v>
+        <v>26.60658424842961</v>
       </c>
       <c r="C20">
-        <v>25.51709365937745</v>
+        <v>25.32968641242794</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.257206792518881</v>
+        <v>6.404904769357543</v>
       </c>
       <c r="F20">
-        <v>45.18516367882175</v>
+        <v>45.10793639929479</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.005370044097863</v>
       </c>
       <c r="H20">
-        <v>31.11409582425039</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.31075985298861</v>
+        <v>31.20450383145287</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.4257619181928</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.84306420241388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>20.77051723931082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.63275389900329</v>
+        <v>28.45883543420746</v>
       </c>
       <c r="C21">
-        <v>27.35217403442019</v>
+        <v>27.15387587572564</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.59448978722204</v>
+        <v>6.737543068998515</v>
       </c>
       <c r="F21">
-        <v>48.34998103744921</v>
+        <v>48.25954629466372</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.987085139493042</v>
       </c>
       <c r="H21">
-        <v>32.83636980263218</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.6584605737222</v>
+        <v>32.89631204615503</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.7569115589152</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.20217674671744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.12647350396718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.82151523610681</v>
+        <v>29.64222604619938</v>
       </c>
       <c r="C22">
-        <v>28.52937156830902</v>
+        <v>28.32387852731462</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.806099056765097</v>
+        <v>6.946426129762154</v>
       </c>
       <c r="F22">
-        <v>50.37922987156133</v>
+        <v>50.28025571644221</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.975004933688881</v>
       </c>
       <c r="H22">
-        <v>33.97251408513961</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>12.90303930039921</v>
+        <v>34.01336814021379</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.99058269197813</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.06991213600417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>22.99199460618289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.18931525669043</v>
+        <v>29.01291046386446</v>
       </c>
       <c r="C23">
-        <v>27.90287169001537</v>
+        <v>27.70123106089508</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.693969471387273</v>
+        <v>6.835724549146116</v>
       </c>
       <c r="F23">
-        <v>49.29947553334483</v>
+        <v>49.20505723989398</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.981468090845371</v>
       </c>
       <c r="H23">
-        <v>33.36498430691352</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12.77078904721927</v>
+        <v>33.41595712587404</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.8641638411847</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.60853227852445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>22.53181238021322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.74161316494231</v>
+        <v>26.57580924332705</v>
       </c>
       <c r="C24">
-        <v>25.48667817765137</v>
+        <v>25.29944872714944</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.251545643304235</v>
+        <v>6.39932505462528</v>
       </c>
       <c r="F24">
-        <v>45.13271651652207</v>
+        <v>45.05570806903354</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.00566750247375</v>
       </c>
       <c r="H24">
-        <v>31.08608803707329</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.30534292241849</v>
+        <v>31.17700913537071</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.42061425289852</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.82047650172488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>20.747978955448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.96720451809314</v>
+        <v>23.81251872598838</v>
       </c>
       <c r="C25">
-        <v>22.7650481380549</v>
+        <v>22.59348777466846</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.736657256715382</v>
+        <v>5.892403588472046</v>
       </c>
       <c r="F25">
-        <v>40.4457817473636</v>
+        <v>40.38855207498318</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.031545867516164</v>
       </c>
       <c r="H25">
-        <v>28.65916490490952</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.86647947218168</v>
+        <v>28.79719807743364</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.00507876832661</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.79222780483581</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.72378661099076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.64550970840449</v>
+        <v>20.24154391815246</v>
       </c>
       <c r="C2">
-        <v>20.48352586732692</v>
+        <v>9.531892618877443</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.488380219830564</v>
+        <v>6.887575433970038</v>
       </c>
       <c r="F2">
-        <v>36.91635398739699</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.050711001895404</v>
+        <v>2.115034747752896</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.06591573203133</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.74278401113312</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.80052478133939</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.179726169665838</v>
       </c>
       <c r="M2">
-        <v>17.13692668522768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>36.51134149010884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.08737478203963</v>
+        <v>18.98591295197614</v>
       </c>
       <c r="C3">
-        <v>18.97269883856402</v>
+        <v>8.969774748091</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.195616861698001</v>
+        <v>6.822156576758601</v>
       </c>
       <c r="F3">
-        <v>34.51752542947528</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.063891134326214</v>
+        <v>2.126499606760134</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.90396182098714</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.58782955065869</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.6618139829875</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.964179284186941</v>
       </c>
       <c r="M3">
-        <v>15.99719649466076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>35.07276501452381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08452163792875</v>
+        <v>18.19131937885821</v>
       </c>
       <c r="C4">
-        <v>18.00301420097455</v>
+        <v>8.61035930675826</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.006633031254577</v>
+        <v>6.785252224070495</v>
       </c>
       <c r="F4">
-        <v>32.99882371682007</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.072112572371033</v>
+        <v>2.133675654169026</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.196251717017</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.50262322969074</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.92799744526344</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.834375394249053</v>
       </c>
       <c r="M4">
-        <v>15.26457669105956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>34.19202731754283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66397756895748</v>
+        <v>17.86176729217121</v>
       </c>
       <c r="C5">
-        <v>17.59700713649865</v>
+        <v>8.46026996387077</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.927325486876845</v>
+        <v>6.771007455295335</v>
       </c>
       <c r="F5">
-        <v>32.36860876804678</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.075499779360018</v>
+        <v>2.136637489153311</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.90938309989949</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.47021729597354</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.62008914698229</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.782152612996387</v>
       </c>
       <c r="M5">
-        <v>14.95763863794351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>33.83393112678372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59342198688614</v>
+        <v>17.80670548009968</v>
       </c>
       <c r="C6">
-        <v>17.52892668966744</v>
+        <v>8.435128134573505</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.914018764238475</v>
+        <v>6.76868931946976</v>
       </c>
       <c r="F6">
-        <v>32.26328598902255</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.076064575330796</v>
+        <v>2.137131655076491</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.86184460551399</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.46497106988097</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.56842088442324</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.773522797297463</v>
       </c>
       <c r="M6">
-        <v>14.90616156447369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>33.77452441420903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07889844754278</v>
+        <v>18.18689788463825</v>
       </c>
       <c r="C7">
-        <v>17.99758294656731</v>
+        <v>8.608349859344456</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.005572717291017</v>
+        <v>6.785056933525007</v>
       </c>
       <c r="F7">
-        <v>32.99036994451521</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.072158098346288</v>
+        <v>2.133715442495032</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.1923765649139</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.50217704697505</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.92388101311187</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.833668325311501</v>
       </c>
       <c r="M7">
-        <v>15.26047134955812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>34.18719436200226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11767537828684</v>
+        <v>19.81359790699475</v>
       </c>
       <c r="C8">
-        <v>19.97113684834403</v>
+        <v>9.341009551978386</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.38936326960274</v>
+        <v>6.864325556412528</v>
       </c>
       <c r="F8">
-        <v>36.09881406169357</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.055231649074537</v>
+        <v>2.118961495719374</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.66411941433801</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.6871805054571</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.41498685691752</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.104896731566826</v>
       </c>
       <c r="M8">
-        <v>16.75067003961029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>36.01487547800435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.76289189301275</v>
+        <v>22.97111966551032</v>
       </c>
       <c r="C9">
-        <v>23.52214796080306</v>
+        <v>10.66710107849402</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.067968149746362</v>
+        <v>7.046915090087504</v>
       </c>
       <c r="F9">
-        <v>41.98829482954833</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.022829640145431</v>
+        <v>2.090952327636056</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.59516204496745</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.13763171592563</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.07212013598232</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.655781012896249</v>
       </c>
       <c r="M9">
-        <v>19.4200013796466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>39.61493242790412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.24698644858628</v>
+        <v>25.24919804641797</v>
       </c>
       <c r="C10">
-        <v>25.95942857236555</v>
+        <v>11.57897971761894</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.520637789807981</v>
+        <v>7.199491012427796</v>
       </c>
       <c r="F10">
-        <v>46.19582868676135</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>1.999133353064598</v>
+        <v>2.070684285743972</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.78129937544062</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.53550197688675</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.87391226128329</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.071197129231082</v>
       </c>
       <c r="M10">
-        <v>21.23946258643786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>42.26944738143891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.34045970648878</v>
+        <v>26.25077937709739</v>
       </c>
       <c r="C11">
-        <v>27.03703750600241</v>
+        <v>11.98180656648287</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.716483593709717</v>
+        <v>7.273371550457422</v>
       </c>
       <c r="F11">
-        <v>48.05769108364635</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.9882763372244</v>
+        <v>2.061465292461246</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.78607840867519</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12.73448838181846</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.66407724873482</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.262542010256691</v>
       </c>
       <c r="M11">
-        <v>22.03985534492444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.48088712205948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.74981940333485</v>
+        <v>26.62538732387422</v>
       </c>
       <c r="C12">
-        <v>27.44123257089356</v>
+        <v>12.13278278317948</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.789186365575805</v>
+        <v>7.302036017518924</v>
       </c>
       <c r="F12">
-        <v>48.75596089471419</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.984143765715378</v>
+        <v>2.057968022363174</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.16846334197274</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>12.81276494562165</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.95935348093006</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.335362249615569</v>
       </c>
       <c r="M12">
-        <v>22.33936475709882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>43.94046612605348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.66185658467356</v>
+        <v>26.54491066609758</v>
       </c>
       <c r="C13">
-        <v>27.3543434294402</v>
+        <v>12.10033413180002</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.773593637540902</v>
+        <v>7.295831260702937</v>
       </c>
       <c r="F13">
-        <v>48.60586421383557</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.98503491472666</v>
+        <v>2.058721611288534</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.08601731293482</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>12.79577065804118</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.89593062740739</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.319662479383659</v>
       </c>
       <c r="M13">
-        <v>22.27501327052831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>43.84144486853602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.37422905083721</v>
+        <v>26.28169010792921</v>
       </c>
       <c r="C14">
-        <v>27.07036465794748</v>
+        <v>11.99425783063711</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.722494218535018</v>
+        <v>7.275715738366778</v>
       </c>
       <c r="F14">
-        <v>48.11526928437215</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.987936838412662</v>
+        <v>2.061177734885974</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.81749651658941</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12.74086750252864</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.68844696405758</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.268525534853568</v>
       </c>
       <c r="M14">
-        <v>22.06456578213826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>43.51867827242059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.19745243417157</v>
+        <v>26.1198624787992</v>
       </c>
       <c r="C15">
-        <v>26.89593484434478</v>
+        <v>11.92908437165941</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.69100389425556</v>
+        <v>7.263485356075488</v>
       </c>
       <c r="F15">
-        <v>47.81390726874527</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.989711251776341</v>
+        <v>2.062681163731331</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.65328168400115</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12.70762953810357</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.56085334296289</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.237250759535151</v>
       </c>
       <c r="M15">
-        <v>21.93520529664751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.32109306386431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.17483419370291</v>
+        <v>25.18306999170587</v>
       </c>
       <c r="C16">
-        <v>25.88842736495247</v>
+        <v>11.55242564571637</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.507635150462179</v>
+        <v>7.19475640247615</v>
       </c>
       <c r="F16">
-        <v>46.07316038230375</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.999840500372705</v>
+        <v>2.071286264273362</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.715874195196</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12.52288748739474</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.82170442993481</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.058741416982434</v>
       </c>
       <c r="M16">
-        <v>21.18663386646194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>42.19037594018414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.53848782653151</v>
+        <v>24.59969675281347</v>
       </c>
       <c r="C17">
-        <v>25.2627819895875</v>
+        <v>11.31839033823327</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.392556264092194</v>
+        <v>7.153768717275653</v>
       </c>
       <c r="F17">
-        <v>44.99237631454875</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.006027959586222</v>
+        <v>2.076561217246489</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.14369367009013</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.41438705861164</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.36090954177921</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.949848640559962</v>
       </c>
       <c r="M17">
-        <v>20.72064605907706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>41.49787195995786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.16900065073195</v>
+        <v>24.26086442874641</v>
       </c>
       <c r="C18">
-        <v>24.8999565711662</v>
+        <v>11.18263957882484</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.325418201588663</v>
+        <v>7.130611733839314</v>
       </c>
       <c r="F18">
-        <v>44.36577593884991</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.009580229802923</v>
+        <v>2.079595760625925</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.81552655407633</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.35365122978656</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.09307789156238</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.887437242243396</v>
       </c>
       <c r="M18">
-        <v>20.45003001918601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>41.09990478248406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04328622835734</v>
+        <v>24.14556733995594</v>
       </c>
       <c r="C19">
-        <v>24.77658308399992</v>
+        <v>11.13647656897316</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.30252394765122</v>
+        <v>7.122841724436833</v>
       </c>
       <c r="F19">
-        <v>44.15274794708832</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>2.01078211583302</v>
+        <v>2.080623475920656</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.70456517763654</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.33336461294403</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.00190628976294</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.866343369260457</v>
       </c>
       <c r="M19">
-        <v>20.35794935357909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40.96521234499119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.60658424842961</v>
+        <v>24.66213631348892</v>
       </c>
       <c r="C20">
-        <v>25.32968641242794</v>
+        <v>11.34342070832578</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.404904769357543</v>
+        <v>7.158088358297857</v>
       </c>
       <c r="F20">
-        <v>45.10793639929479</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.005370044097863</v>
+        <v>2.075999678021948</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.20450383145287</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.4257619181928</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.41024914838792</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.96141750530432</v>
       </c>
       <c r="M20">
-        <v>20.77051723931082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>41.57155309919165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.45883543420746</v>
+        <v>26.35912820899616</v>
       </c>
       <c r="C21">
-        <v>27.15387587572564</v>
+        <v>12.02545608619823</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.737543068998515</v>
+        <v>7.281605111533021</v>
       </c>
       <c r="F21">
-        <v>48.25954629466372</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.987085139493042</v>
+        <v>2.060456536701537</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.89631204615503</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>12.7569115589152</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.74949436738556</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.283535612512678</v>
       </c>
       <c r="M21">
-        <v>22.12647350396718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>43.61345725937698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.64222604619938</v>
+        <v>27.4411891106968</v>
       </c>
       <c r="C22">
-        <v>28.32387852731462</v>
+        <v>12.46217645016423</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.946426129762154</v>
+        <v>7.366363223053932</v>
       </c>
       <c r="F22">
-        <v>50.28025571644221</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>1.975004933688881</v>
+        <v>2.050258162496325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.01336814021379</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>12.99058269197813</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.60195910009223</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.496191745238059</v>
       </c>
       <c r="M22">
-        <v>22.99199460618289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>44.95303127390844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.01291046386446</v>
+        <v>26.86602243016389</v>
       </c>
       <c r="C23">
-        <v>27.70123106089508</v>
+        <v>12.2298562265509</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.835724549146116</v>
+        <v>7.320740857341609</v>
       </c>
       <c r="F23">
-        <v>49.20505723989398</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.981468090845371</v>
+        <v>2.055707254337018</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.41595712587404</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>12.8641638411847</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.14896074853908</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.382486292908963</v>
       </c>
       <c r="M23">
-        <v>22.53181238021322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>44.2374889300489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.57580924332705</v>
+        <v>24.63391813691102</v>
       </c>
       <c r="C24">
-        <v>25.29944872714944</v>
+        <v>11.33210822963003</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.39932505462528</v>
+        <v>7.156134182937645</v>
       </c>
       <c r="F24">
-        <v>45.05570806903354</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>2.00566750247375</v>
+        <v>2.076253543509717</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.17700913537071</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.42061425289852</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.38795181224132</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.956186623293293</v>
       </c>
       <c r="M24">
-        <v>20.747978955448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>41.53824136884571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.81251872598838</v>
+        <v>22.09954716674619</v>
       </c>
       <c r="C25">
-        <v>22.59348777466846</v>
+        <v>10.31975901949777</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.892403588472046</v>
+        <v>6.994428951953567</v>
       </c>
       <c r="F25">
-        <v>40.38855207498318</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.031545867516164</v>
+        <v>2.098454947048849</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.79719807743364</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.00507876832661</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.38067754480453</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.504847347456551</v>
       </c>
       <c r="M25">
-        <v>18.72378661099076</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>38.63962274564724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.24154391815246</v>
+        <v>25.33210514120204</v>
       </c>
       <c r="C2">
-        <v>9.531892618877443</v>
+        <v>18.68460815842529</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.887575433970038</v>
+        <v>30.11775418454417</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.115034747752896</v>
+        <v>11.06037584080617</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.439454159298929</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.674561214394608</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.80052478133939</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.179726169665838</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>36.51134149010884</v>
+        <v>7.639172229305668</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.98591295197614</v>
+        <v>23.72473362754212</v>
       </c>
       <c r="C3">
-        <v>8.969774748091</v>
+        <v>17.5778636232205</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.822156576758601</v>
+        <v>27.93841949466698</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.126499606760134</v>
+        <v>10.56253788962165</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.586586763596503</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>7.169496787621021</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.6618139829875</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.964179284186941</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>35.07276501452381</v>
+        <v>7.758678005412987</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.19131937885821</v>
+        <v>22.68119420431087</v>
       </c>
       <c r="C4">
-        <v>8.61035930675826</v>
+        <v>16.86243108641406</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.785252224070495</v>
+        <v>26.53584541599925</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.133675654169026</v>
+        <v>10.30776151734837</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.684846362164636</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.480093464335336</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.92799744526344</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.834375394249053</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>34.19202731754283</v>
+        <v>7.85677433013694</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86176729217121</v>
+        <v>22.24171744202327</v>
       </c>
       <c r="C5">
-        <v>8.46026996387077</v>
+        <v>16.56195430723625</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.771007455295335</v>
+        <v>25.94776366221637</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.136637489153311</v>
+        <v>10.21673518792368</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.726739698835526</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.608424898331655</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.62008914698229</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.782152612996387</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>33.83393112678372</v>
+        <v>7.902406274267704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.80670548009968</v>
+        <v>22.16788415655414</v>
       </c>
       <c r="C6">
-        <v>8.435128134573505</v>
+        <v>16.51152421406228</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.76868931946976</v>
+        <v>25.84910644612911</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.137131655076491</v>
+        <v>10.20238910217046</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.733804143509196</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.62984268595569</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.56842088442324</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.773522797297463</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>33.77452441420903</v>
+        <v>7.910309229925855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.18689788463825</v>
+        <v>22.67532483963549</v>
       </c>
       <c r="C7">
-        <v>8.608349859344456</v>
+        <v>16.85841477259317</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.785056933525007</v>
+        <v>26.52798163683743</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.133715442495032</v>
+        <v>10.30648224434148</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.685404024566794</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.481816961825784</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.92388101311187</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.833668325311501</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>34.18719436200226</v>
+        <v>7.857367554636727</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.81359790699475</v>
+        <v>24.78962999001224</v>
       </c>
       <c r="C8">
-        <v>9.341009551978386</v>
+        <v>18.3104963401143</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.864325556412528</v>
+        <v>29.37950183937227</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.118961495719374</v>
+        <v>10.87821759850102</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.488452082792654</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6.843870167873654</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.41498685691752</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.104896731566826</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>36.01487547800435</v>
+        <v>7.674904580781103</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.97111966551032</v>
+        <v>28.48741509435394</v>
       </c>
       <c r="C9">
-        <v>10.66710107849402</v>
+        <v>20.87077133077586</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.046915090087504</v>
+        <v>34.47516840479385</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.090952327636056</v>
+        <v>12.60241766504663</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.172360867110779</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.642396187628377</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.07212013598232</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.655781012896249</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>39.61493242790412</v>
+        <v>7.538900036399896</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.24919804641797</v>
+        <v>30.93327793691147</v>
       </c>
       <c r="C10">
-        <v>11.57897971761894</v>
+        <v>22.57512763305158</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.199491012427796</v>
+        <v>37.93962501468744</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.070684285743972</v>
+        <v>14.18240773232228</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.994659308802413</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.784336132081244</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.87391226128329</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.071197129231082</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>42.26944738143891</v>
+        <v>7.617889591535801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.25077937709739</v>
+        <v>31.98796807771445</v>
       </c>
       <c r="C11">
-        <v>11.98180656648287</v>
+        <v>23.31220721271491</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.273371550457422</v>
+        <v>39.46078902161963</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.061465292461246</v>
+        <v>14.92548758818458</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.928764639870619</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.397985671914224</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.66407724873482</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.262542010256691</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.48088712205948</v>
+        <v>8.035404682812015</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.62538732387422</v>
+        <v>32.37910134212384</v>
       </c>
       <c r="C12">
-        <v>12.13278278317948</v>
+        <v>23.58584840963073</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.302036017518924</v>
+        <v>40.02946560029953</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.057968022363174</v>
+        <v>15.21011974278759</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.906258627479814</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.252135414285602</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.95935348093006</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.335362249615569</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>43.94046612605348</v>
+        <v>8.194031444616328</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.54491066609758</v>
+        <v>32.29522958256631</v>
       </c>
       <c r="C13">
-        <v>12.10033413180002</v>
+        <v>23.52715783647088</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.295831260702937</v>
+        <v>39.90730896045572</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.058721611288534</v>
+        <v>15.14867772340999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.91099179970382</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.283528793521803</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.89593062740739</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.319662479383659</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>43.84144486853602</v>
+        <v>8.159845007318172</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.28169010792921</v>
+        <v>32.02031180468007</v>
       </c>
       <c r="C14">
-        <v>11.99425783063711</v>
+        <v>23.33482937222146</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.275715738366778</v>
+        <v>39.50771854469394</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.061177734885974</v>
+        <v>14.94884050108282</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4.926862200424164</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.38597814716843</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.68844696405758</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.268525534853568</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.51867827242059</v>
+        <v>8.048444510673788</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.1198624787992</v>
+        <v>31.85084417816035</v>
       </c>
       <c r="C15">
-        <v>11.92908437165941</v>
+        <v>23.21631061574282</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.263485356075488</v>
+        <v>39.2620167617911</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.062681163731331</v>
+        <v>14.82685120506284</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.936911309328227</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.448786476382708</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.56085334296289</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.237250759535151</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.32109306386431</v>
+        <v>7.980276579356407</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.18306999170587</v>
+        <v>30.86319180612808</v>
       </c>
       <c r="C16">
-        <v>11.55242564571637</v>
+        <v>22.52618997092586</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.19475640247615</v>
+        <v>37.83915392111638</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.071286264273362</v>
+        <v>14.13431103620078</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.999291142908718</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.809655140700208</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.82170442993481</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.058741416982434</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>42.19037594018414</v>
+        <v>7.604629083847446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.59969675281347</v>
+        <v>30.24250932939377</v>
       </c>
       <c r="C17">
-        <v>11.31839033823327</v>
+        <v>22.09304135549494</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.153768717275653</v>
+        <v>36.952588087717</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.076561217246489</v>
+        <v>13.71547605518153</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.041588607590772</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.031974326733505</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.36090954177921</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.949848640559962</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>41.49787195995786</v>
+        <v>7.574510809825298</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.26086442874641</v>
+        <v>29.88004973011409</v>
       </c>
       <c r="C18">
-        <v>11.18263957882484</v>
+        <v>21.84030390380301</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.130611733839314</v>
+        <v>36.43746260358775</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.079595760625925</v>
+        <v>13.47687211007345</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.067303668047592</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.16022939611199</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.09307789156238</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.887437242243396</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>41.09990478248406</v>
+        <v>7.561260746067444</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.14556733995594</v>
+        <v>29.75638730179903</v>
       </c>
       <c r="C19">
-        <v>11.13647656897316</v>
+        <v>21.75411223821486</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.122841724436833</v>
+        <v>36.26214229851891</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.080623475920656</v>
+        <v>13.39648933595558</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.076239933612634</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.203723648702453</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.00190628976294</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.866343369260457</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>40.96521234499119</v>
+        <v>7.557458687313562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.66213631348892</v>
+        <v>30.30914654712696</v>
       </c>
       <c r="C20">
-        <v>11.34342070832578</v>
+        <v>22.13952341243031</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.158088358297857</v>
+        <v>37.0474986758983</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.075999678021948</v>
+        <v>13.75982603308223</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.036940393592356</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.008269278653509</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.41024914838792</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.96141750530432</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>41.57155309919165</v>
+        <v>7.577291789003097</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.35912820899616</v>
+        <v>32.10128518403076</v>
       </c>
       <c r="C21">
-        <v>12.02545608619823</v>
+        <v>23.39146922473407</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.281605111533021</v>
+        <v>39.62528303071716</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.060456536701537</v>
+        <v>15.00745098199051</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.922131742756545</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.355875027001824</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.74949436738556</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.283535612512678</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>43.61345725937698</v>
+        <v>8.081151328816109</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.4411891106968</v>
+        <v>33.22447898185575</v>
       </c>
       <c r="C22">
-        <v>12.46217645016423</v>
+        <v>24.17779802349996</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.366363223053932</v>
+        <v>41.26743370604209</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.050258162496325</v>
+        <v>15.84171460468924</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.861519767500064</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.932070601872604</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.60195910009223</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>8.496191745238059</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>44.95303127390844</v>
+        <v>8.543821225324299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.86602243016389</v>
+        <v>32.62937937113303</v>
       </c>
       <c r="C23">
-        <v>12.2298562265509</v>
+        <v>23.76102575767806</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.320740857341609</v>
+        <v>40.39469172503595</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.055707254337018</v>
+        <v>15.39478149186173</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.89244348224347</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.158070119864936</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.14896074853908</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.382486292908963</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>44.2374889300489</v>
+        <v>8.296601463681169</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.63391813691102</v>
+        <v>30.27903737479673</v>
       </c>
       <c r="C24">
-        <v>11.33210822963003</v>
+        <v>22.11852044611316</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.156134182937645</v>
+        <v>37.004606542047</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.076253543509717</v>
+        <v>13.73976856637608</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.039037519867374</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.018984948863755</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.38795181224132</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.956186623293293</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>41.53824136884571</v>
+        <v>7.576021881830214</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.09954716674619</v>
+        <v>27.5348742613181</v>
       </c>
       <c r="C25">
-        <v>10.31975901949777</v>
+        <v>20.20914505339753</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.994428951953567</v>
+        <v>33.14750718520685</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.098454947048849</v>
+        <v>12.04445798571889</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.249247486205082</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5.96266813350774</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.38067754480453</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.504847347456551</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>38.63962274564724</v>
+        <v>7.548322593818259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.33210514120204</v>
+        <v>14.71780674912695</v>
       </c>
       <c r="C2">
-        <v>18.68460815842529</v>
+        <v>11.70139857436583</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11775418454417</v>
+        <v>16.65366325213244</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>11.06037584080617</v>
+        <v>13.04860781319793</v>
       </c>
       <c r="H2">
-        <v>5.439454159298929</v>
+        <v>10.35190583803758</v>
       </c>
       <c r="I2">
-        <v>6.674561214394608</v>
+        <v>13.84225927835601</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.639172229305668</v>
+        <v>13.63216782526221</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72473362754212</v>
+        <v>13.83054310157664</v>
       </c>
       <c r="C3">
-        <v>17.5778636232205</v>
+        <v>11.12281386937704</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.93841949466698</v>
+        <v>15.69970040925352</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>10.56253788962165</v>
+        <v>13.18392910761913</v>
       </c>
       <c r="H3">
-        <v>5.586586763596503</v>
+        <v>10.42636047001692</v>
       </c>
       <c r="I3">
-        <v>7.169496787621021</v>
+        <v>14.00779444967782</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.758678005412987</v>
+        <v>13.76448272730525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.68119420431087</v>
+        <v>13.25414245937379</v>
       </c>
       <c r="C4">
-        <v>16.86243108641406</v>
+        <v>10.75051581907269</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.53584541599925</v>
+        <v>15.0880924750741</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>10.30776151734837</v>
+        <v>13.28040293957676</v>
       </c>
       <c r="H4">
-        <v>5.684846362164636</v>
+        <v>10.47480516671016</v>
       </c>
       <c r="I4">
-        <v>7.480093464335336</v>
+        <v>14.11433864705918</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.85677433013694</v>
+        <v>13.85152333248498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.24171744202327</v>
+        <v>13.01138256781458</v>
       </c>
       <c r="C5">
-        <v>16.56195430723625</v>
+        <v>10.59464622650531</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.94776366221637</v>
+        <v>14.83261628750293</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>10.21673518792368</v>
+        <v>13.32301202290392</v>
       </c>
       <c r="H5">
-        <v>5.726739698835526</v>
+        <v>10.49523254448105</v>
       </c>
       <c r="I5">
-        <v>7.608424898331655</v>
+        <v>14.15899364093858</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.902406274267704</v>
+        <v>13.88844263345184</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.16788415655414</v>
+        <v>12.97059975214662</v>
       </c>
       <c r="C6">
-        <v>16.51152421406228</v>
+        <v>10.56851753142524</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.84910644612911</v>
+        <v>14.78982649855366</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>10.20238910217046</v>
+        <v>13.33028415876488</v>
       </c>
       <c r="H6">
-        <v>5.733804143509196</v>
+        <v>10.49866589979107</v>
       </c>
       <c r="I6">
-        <v>7.62984268595569</v>
+        <v>14.16648341968669</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.910309229925855</v>
+        <v>13.89466035879916</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.67532483963549</v>
+        <v>13.25090026836361</v>
       </c>
       <c r="C7">
-        <v>16.85841477259317</v>
+        <v>10.74843034091548</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.52798163683743</v>
+        <v>15.08467191494239</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>10.30648224434148</v>
+        <v>13.28096433292298</v>
       </c>
       <c r="H7">
-        <v>5.685404024566794</v>
+        <v>10.47507788148405</v>
       </c>
       <c r="I7">
-        <v>7.481816961825784</v>
+        <v>14.11493586462363</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.857367554636727</v>
+        <v>13.85201538111991</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.78962999001224</v>
+        <v>14.41848103643941</v>
       </c>
       <c r="C8">
-        <v>18.3104963401143</v>
+        <v>11.50551172751504</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.37950183937227</v>
+        <v>16.3302493538257</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>10.87821759850102</v>
+        <v>13.09244617496611</v>
       </c>
       <c r="H8">
-        <v>5.488452082792654</v>
+        <v>10.37701101282191</v>
       </c>
       <c r="I8">
-        <v>6.843870167873654</v>
+        <v>13.89832019423237</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.674904580781103</v>
+        <v>13.67658123433209</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.48741509435394</v>
+        <v>16.47436723651634</v>
       </c>
       <c r="C9">
-        <v>20.87077133077586</v>
+        <v>12.85024392944021</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.47516840479385</v>
+        <v>18.69378146740698</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>12.60241766504663</v>
+        <v>12.83204773975139</v>
       </c>
       <c r="H9">
-        <v>5.172360867110779</v>
+        <v>10.20638192326153</v>
       </c>
       <c r="I9">
-        <v>5.642396187628377</v>
+        <v>13.51227205749852</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.538900036399896</v>
+        <v>13.37896201063405</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.93327793691147</v>
+        <v>17.84342886432501</v>
       </c>
       <c r="C10">
-        <v>22.57512763305158</v>
+        <v>13.74797551823884</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.93962501468744</v>
+        <v>20.3538630016205</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>14.18240773232228</v>
+        <v>12.71136816850399</v>
       </c>
       <c r="H10">
-        <v>4.994659308802413</v>
+        <v>10.09427249213954</v>
       </c>
       <c r="I10">
-        <v>4.784336132081244</v>
+        <v>13.25199559172523</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.617889591535801</v>
+        <v>13.18915422001561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.98796807771445</v>
+        <v>18.43027371351761</v>
       </c>
       <c r="C11">
-        <v>23.31220721271491</v>
+        <v>14.13603732319945</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.46078902161963</v>
+        <v>21.06632429473285</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>14.92548758818458</v>
+        <v>12.672593360517</v>
       </c>
       <c r="H11">
-        <v>4.928764639870619</v>
+        <v>10.04615765325466</v>
       </c>
       <c r="I11">
-        <v>4.397985671914224</v>
+        <v>13.13860427766371</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.035404682812015</v>
+        <v>13.10919900102106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.37910134212384</v>
+        <v>18.64733510500001</v>
       </c>
       <c r="C12">
-        <v>23.58584840963073</v>
+        <v>14.2800174355442</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.02946560029953</v>
+        <v>21.33000886585616</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>15.21011974278759</v>
+        <v>12.66028724084899</v>
       </c>
       <c r="H12">
-        <v>4.906258627479814</v>
+        <v>10.0283535871441</v>
       </c>
       <c r="I12">
-        <v>4.252135414285602</v>
+        <v>13.09638215316278</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.194031444616328</v>
+        <v>13.07985208697082</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.29522958256631</v>
+        <v>18.60081659988498</v>
       </c>
       <c r="C13">
-        <v>23.52715783647088</v>
+        <v>14.24914152150564</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.90730896045572</v>
+        <v>21.27349084249297</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>15.14867772340999</v>
+        <v>12.66283098826836</v>
       </c>
       <c r="H13">
-        <v>4.91099179970382</v>
+        <v>10.03216949013489</v>
       </c>
       <c r="I13">
-        <v>4.283528793521803</v>
+        <v>13.10544362600105</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.159845007318172</v>
+        <v>13.08613090131038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.02031180468007</v>
+        <v>18.4482349365256</v>
       </c>
       <c r="C14">
-        <v>23.33482937222146</v>
+        <v>14.14794242867473</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.50771854469394</v>
+        <v>21.08814002520047</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>14.94884050108282</v>
+        <v>12.6715329723925</v>
       </c>
       <c r="H14">
-        <v>4.926862200424164</v>
+        <v>10.04468455786437</v>
       </c>
       <c r="I14">
-        <v>4.38597814716843</v>
+        <v>13.13511629529753</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.048444510673788</v>
+        <v>13.10676589833717</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.85084417816035</v>
+        <v>18.35410197259271</v>
       </c>
       <c r="C15">
-        <v>23.21631061574282</v>
+        <v>14.08556695156986</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.2620167617911</v>
+        <v>20.97381271584676</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>14.82685120506284</v>
+        <v>12.67717439969619</v>
       </c>
       <c r="H15">
-        <v>4.936911309328227</v>
+        <v>10.0524046087538</v>
       </c>
       <c r="I15">
-        <v>4.448786476382708</v>
+        <v>13.15338488901453</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.980276579356407</v>
+        <v>13.11952694594723</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.86319180612808</v>
+        <v>17.80435417213255</v>
       </c>
       <c r="C16">
-        <v>22.52618997092586</v>
+        <v>13.72220149693032</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.83915392111638</v>
+        <v>20.30644527362895</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>14.13431103620078</v>
+        <v>12.7142317575196</v>
       </c>
       <c r="H16">
-        <v>4.999291142908718</v>
+        <v>10.09747505175044</v>
       </c>
       <c r="I16">
-        <v>4.809655140700208</v>
+        <v>13.25950647378065</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.604629083847446</v>
+        <v>13.19450903480515</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.24250932939377</v>
+        <v>17.45789708209684</v>
       </c>
       <c r="C17">
-        <v>22.09304135549494</v>
+        <v>13.49404626663578</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.952588087717</v>
+        <v>19.88611992035678</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>13.71547605518153</v>
+        <v>12.74113805310558</v>
       </c>
       <c r="H17">
-        <v>5.041588607590772</v>
+        <v>10.12586388697585</v>
       </c>
       <c r="I17">
-        <v>5.031974326733505</v>
+        <v>13.32588911366982</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.574510809825298</v>
+        <v>13.24215271190501</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.88004973011409</v>
+        <v>17.25523993554082</v>
       </c>
       <c r="C18">
-        <v>21.84030390380301</v>
+        <v>13.36090691594229</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.43746260358775</v>
+        <v>19.64033705944609</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>13.47687211007345</v>
+        <v>12.75812820907727</v>
       </c>
       <c r="H18">
-        <v>5.067303668047592</v>
+        <v>10.14246379974239</v>
       </c>
       <c r="I18">
-        <v>5.16022939611199</v>
+        <v>13.36454241337279</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.561260746067444</v>
+        <v>13.27015676605225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.75638730179903</v>
+        <v>17.18604236975246</v>
       </c>
       <c r="C19">
-        <v>21.75411223821486</v>
+        <v>13.31550172905581</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.26214229851891</v>
+        <v>19.55642724761393</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>13.39648933595558</v>
+        <v>12.76413900702364</v>
       </c>
       <c r="H19">
-        <v>5.076239933612634</v>
+        <v>10.14813082352324</v>
       </c>
       <c r="I19">
-        <v>5.203723648702453</v>
+        <v>13.37771089481551</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.557458687313562</v>
+        <v>13.27974127596995</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.30914654712696</v>
+        <v>17.49512825500455</v>
       </c>
       <c r="C20">
-        <v>22.13952341243031</v>
+        <v>13.51853189145298</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.0474986758983</v>
+        <v>19.93128037485902</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.75982603308223</v>
+        <v>12.73811665941588</v>
       </c>
       <c r="H20">
-        <v>5.036940393592356</v>
+        <v>10.12281374896752</v>
       </c>
       <c r="I20">
-        <v>5.008269278653509</v>
+        <v>13.31877376959721</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.577291789003097</v>
+        <v>13.23701871096639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.10128518403076</v>
+        <v>18.49319195985865</v>
       </c>
       <c r="C21">
-        <v>23.39146922473407</v>
+        <v>14.17774801008754</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.62528303071716</v>
+        <v>21.14274758342711</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>15.00745098199051</v>
+        <v>12.66891203578207</v>
       </c>
       <c r="H21">
-        <v>4.922131742756545</v>
+        <v>10.04099727936591</v>
       </c>
       <c r="I21">
-        <v>4.355875027001824</v>
+        <v>13.12638129118179</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.081151328816109</v>
+        <v>13.10067955436983</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.22447898185575</v>
+        <v>19.11538925927481</v>
       </c>
       <c r="C22">
-        <v>24.17779802349996</v>
+        <v>14.59125382119352</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.26743370604209</v>
+        <v>21.89891866981113</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>15.84171460468924</v>
+        <v>12.63756133782923</v>
       </c>
       <c r="H22">
-        <v>4.861519767500064</v>
+        <v>9.989950764033614</v>
       </c>
       <c r="I22">
-        <v>3.932070601872604</v>
+        <v>13.00481749407803</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.543821225324299</v>
+        <v>13.01700274412497</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.62937937113303</v>
+        <v>18.78606191501423</v>
       </c>
       <c r="C23">
-        <v>23.76102575767806</v>
+        <v>14.37215720727207</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.39469172503595</v>
+        <v>21.49858157779473</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>15.39478149186173</v>
+        <v>12.65300598141578</v>
       </c>
       <c r="H23">
-        <v>4.89244348224347</v>
+        <v>10.01697290980718</v>
       </c>
       <c r="I23">
-        <v>4.158070119864936</v>
+        <v>13.06931750755024</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.296601463681169</v>
+        <v>13.06116196366763</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.27903737479673</v>
+        <v>17.47830686399793</v>
       </c>
       <c r="C24">
-        <v>22.11852044611316</v>
+        <v>13.50746807249492</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.004606542047</v>
+        <v>19.91087620750696</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.73976856637608</v>
+        <v>12.73947789700916</v>
       </c>
       <c r="H24">
-        <v>5.039037519867374</v>
+        <v>10.12419184797679</v>
       </c>
       <c r="I24">
-        <v>5.018984948863755</v>
+        <v>13.32198909296829</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.576021881830214</v>
+        <v>13.23933788390448</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.5348742613181</v>
+        <v>15.93830940449256</v>
       </c>
       <c r="C25">
-        <v>20.20914505339753</v>
+        <v>12.50200977734833</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.14750718520685</v>
+        <v>18.04433547837734</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>12.04445798571889</v>
+        <v>12.89036723027032</v>
       </c>
       <c r="H25">
-        <v>5.249247486205082</v>
+        <v>10.25021731566778</v>
       </c>
       <c r="I25">
-        <v>5.96266813350774</v>
+        <v>13.61258852132513</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.548322593818259</v>
+        <v>13.45445104844271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.71780674912695</v>
+        <v>25.33210514120205</v>
       </c>
       <c r="C2">
-        <v>11.70139857436583</v>
+        <v>18.68460815842538</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.65366325213244</v>
+        <v>30.11775418454421</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>13.04860781319793</v>
+        <v>11.06037584080626</v>
       </c>
       <c r="H2">
-        <v>10.35190583803758</v>
+        <v>5.439454159298877</v>
       </c>
       <c r="I2">
-        <v>13.84225927835601</v>
+        <v>6.674561214394677</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.63216782526221</v>
+        <v>7.639172229305684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.83054310157664</v>
+        <v>23.72473362754212</v>
       </c>
       <c r="C3">
-        <v>11.12281386937704</v>
+        <v>17.57786362322034</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.69970040925352</v>
+        <v>27.93841949466695</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>13.18392910761913</v>
+        <v>10.5625378896217</v>
       </c>
       <c r="H3">
-        <v>10.42636047001692</v>
+        <v>5.586586763596507</v>
       </c>
       <c r="I3">
-        <v>14.00779444967782</v>
+        <v>7.16949678762102</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.76448272730525</v>
+        <v>7.758678005413023</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.25414245937379</v>
+        <v>22.68119420431086</v>
       </c>
       <c r="C4">
-        <v>10.75051581907269</v>
+        <v>16.86243108641396</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.0880924750741</v>
+        <v>26.53584541599925</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>13.28040293957676</v>
+        <v>10.30776151734841</v>
       </c>
       <c r="H4">
-        <v>10.47480516671016</v>
+        <v>5.684846362164638</v>
       </c>
       <c r="I4">
-        <v>14.11433864705918</v>
+        <v>7.480093464335336</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.85152333248498</v>
+        <v>7.856774330136967</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.01138256781458</v>
+        <v>22.24171744202326</v>
       </c>
       <c r="C5">
-        <v>10.59464622650531</v>
+        <v>16.56195430723625</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.83261628750293</v>
+        <v>25.94776366221642</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>13.32301202290392</v>
+        <v>10.216735187924</v>
       </c>
       <c r="H5">
-        <v>10.49523254448105</v>
+        <v>5.726739698835659</v>
       </c>
       <c r="I5">
-        <v>14.15899364093858</v>
+        <v>7.608424898331788</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.88844263345184</v>
+        <v>7.902406274267845</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.97059975214662</v>
+        <v>22.16788415655417</v>
       </c>
       <c r="C6">
-        <v>10.56851753142524</v>
+        <v>16.51152421406219</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.78982649855366</v>
+        <v>25.84910644612912</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>13.33028415876488</v>
+        <v>10.2023891021703</v>
       </c>
       <c r="H6">
-        <v>10.49866589979107</v>
+        <v>5.733804143509134</v>
       </c>
       <c r="I6">
-        <v>14.16648341968669</v>
+        <v>7.629842685955557</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.89466035879916</v>
+        <v>7.910309229925811</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.25090026836361</v>
+        <v>22.67532483963548</v>
       </c>
       <c r="C7">
-        <v>10.74843034091548</v>
+        <v>16.85841477259324</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.08467191494239</v>
+        <v>26.5279816368374</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>13.28096433292298</v>
+        <v>10.30648224434147</v>
       </c>
       <c r="H7">
-        <v>10.47507788148405</v>
+        <v>5.685404024566794</v>
       </c>
       <c r="I7">
-        <v>14.11493586462363</v>
+        <v>7.481816961825818</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.85201538111991</v>
+        <v>7.857367554636695</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.41848103643941</v>
+        <v>24.78962999001225</v>
       </c>
       <c r="C8">
-        <v>11.50551172751504</v>
+        <v>18.31049634011424</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.3302493538257</v>
+        <v>29.37950183937228</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>13.09244617496611</v>
+        <v>10.8782175985011</v>
       </c>
       <c r="H8">
-        <v>10.37701101282191</v>
+        <v>5.48845208279272</v>
       </c>
       <c r="I8">
-        <v>13.89832019423237</v>
+        <v>6.843870167873854</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.67658123433209</v>
+        <v>7.674904580781246</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.47436723651634</v>
+        <v>28.487415094354</v>
       </c>
       <c r="C9">
-        <v>12.85024392944021</v>
+        <v>20.87077133077577</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.69378146740698</v>
+        <v>34.47516840479386</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>12.83204773975139</v>
+        <v>12.60241766504672</v>
       </c>
       <c r="H9">
-        <v>10.20638192326153</v>
+        <v>5.172360867110775</v>
       </c>
       <c r="I9">
-        <v>13.51227205749852</v>
+        <v>5.642396187628341</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.37896201063405</v>
+        <v>7.538900036399923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.84342886432501</v>
+        <v>30.93327793691144</v>
       </c>
       <c r="C10">
-        <v>13.74797551823884</v>
+        <v>22.57512763305154</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.3538630016205</v>
+        <v>37.93962501468739</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>12.71136816850399</v>
+        <v>14.18240773232239</v>
       </c>
       <c r="H10">
-        <v>10.09427249213954</v>
+        <v>4.994659308802426</v>
       </c>
       <c r="I10">
-        <v>13.25199559172523</v>
+        <v>4.784336132081243</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.18915422001561</v>
+        <v>7.61788959153585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43027371351761</v>
+        <v>31.98796807771446</v>
       </c>
       <c r="C11">
-        <v>14.13603732319945</v>
+        <v>23.31220721271492</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.06632429473285</v>
+        <v>39.46078902161963</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>12.672593360517</v>
+        <v>14.92548758818459</v>
       </c>
       <c r="H11">
-        <v>10.04615765325466</v>
+        <v>4.928764639870613</v>
       </c>
       <c r="I11">
-        <v>13.13860427766371</v>
+        <v>4.397985671914157</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.10919900102106</v>
+        <v>8.035404682812038</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64733510500001</v>
+        <v>32.37910134212385</v>
       </c>
       <c r="C12">
-        <v>14.2800174355442</v>
+        <v>23.58584840963069</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.33000886585616</v>
+        <v>40.02946560029962</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>12.66028724084899</v>
+        <v>15.21011974278745</v>
       </c>
       <c r="H12">
-        <v>10.0283535871441</v>
+        <v>4.906258627479826</v>
       </c>
       <c r="I12">
-        <v>13.09638215316278</v>
+        <v>4.252135414285703</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.07985208697082</v>
+        <v>8.194031444616279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.60081659988498</v>
+        <v>32.2952295825663</v>
       </c>
       <c r="C13">
-        <v>14.24914152150564</v>
+        <v>23.52715783647086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.27349084249297</v>
+        <v>39.90730896045569</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>12.66283098826836</v>
+        <v>15.14867772341007</v>
       </c>
       <c r="H13">
-        <v>10.03216949013489</v>
+        <v>4.910991799703838</v>
       </c>
       <c r="I13">
-        <v>13.10544362600105</v>
+        <v>4.283528793521802</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.08613090131038</v>
+        <v>8.159845007318207</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.4482349365256</v>
+        <v>32.02031180468008</v>
       </c>
       <c r="C14">
-        <v>14.14794242867473</v>
+        <v>23.3348293722215</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.08814002520047</v>
+        <v>39.5077185446939</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>12.6715329723925</v>
+        <v>14.94884050108275</v>
       </c>
       <c r="H14">
-        <v>10.04468455786437</v>
+        <v>4.92686220042417</v>
       </c>
       <c r="I14">
-        <v>13.13511629529753</v>
+        <v>4.38597814716853</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.10676589833717</v>
+        <v>8.048444510673745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.35410197259271</v>
+        <v>31.85084417816034</v>
       </c>
       <c r="C15">
-        <v>14.08556695156986</v>
+        <v>23.21631061574269</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.97381271584676</v>
+        <v>39.26201676179105</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>12.67717439969619</v>
+        <v>14.82685120506261</v>
       </c>
       <c r="H15">
-        <v>10.0524046087538</v>
+        <v>4.936911309328274</v>
       </c>
       <c r="I15">
-        <v>13.15338488901453</v>
+        <v>4.448786476382907</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.11952694594723</v>
+        <v>7.980276579356302</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.80435417213255</v>
+        <v>30.86319180612807</v>
       </c>
       <c r="C16">
-        <v>13.72220149693032</v>
+        <v>22.52618997092582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.30644527362895</v>
+        <v>37.83915392111643</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>12.7142317575196</v>
+        <v>14.13431103620077</v>
       </c>
       <c r="H16">
-        <v>10.09747505175044</v>
+        <v>4.999291142908674</v>
       </c>
       <c r="I16">
-        <v>13.25950647378065</v>
+        <v>4.80965514070024</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.19450903480515</v>
+        <v>7.604629083847464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.45789708209684</v>
+        <v>30.24250932939376</v>
       </c>
       <c r="C17">
-        <v>13.49404626663578</v>
+        <v>22.09304135549488</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.88611992035678</v>
+        <v>36.952588087717</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>12.74113805310558</v>
+        <v>13.71547605518131</v>
       </c>
       <c r="H17">
-        <v>10.12586388697585</v>
+        <v>5.041588607590874</v>
       </c>
       <c r="I17">
-        <v>13.32588911366982</v>
+        <v>5.031974326733674</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.24215271190501</v>
+        <v>7.57451080982539</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.25523993554082</v>
+        <v>29.8800497301141</v>
       </c>
       <c r="C18">
-        <v>13.36090691594229</v>
+        <v>21.84030390380295</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.64033705944609</v>
+        <v>36.43746260358768</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>12.75812820907727</v>
+        <v>13.47687211007352</v>
       </c>
       <c r="H18">
-        <v>10.14246379974239</v>
+        <v>5.067303668047597</v>
       </c>
       <c r="I18">
-        <v>13.36454241337279</v>
+        <v>5.160229396112022</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.27015676605225</v>
+        <v>7.561260746067479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.18604236975246</v>
+        <v>29.756387301799</v>
       </c>
       <c r="C19">
-        <v>13.31550172905581</v>
+        <v>21.75411223821466</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.55642724761393</v>
+        <v>36.26214229851886</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>12.76413900702364</v>
+        <v>13.39648933595556</v>
       </c>
       <c r="H19">
-        <v>10.14813082352324</v>
+        <v>5.076239933612644</v>
       </c>
       <c r="I19">
-        <v>13.37771089481551</v>
+        <v>5.20372364870245</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.27974127596995</v>
+        <v>7.557458687313584</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.49512825500455</v>
+        <v>30.309146547127</v>
       </c>
       <c r="C20">
-        <v>13.51853189145298</v>
+        <v>22.13952341243025</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.93128037485902</v>
+        <v>37.04749867589832</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>12.73811665941588</v>
+        <v>13.75982603308229</v>
       </c>
       <c r="H20">
-        <v>10.12281374896752</v>
+        <v>5.036940393592266</v>
       </c>
       <c r="I20">
-        <v>13.31877376959721</v>
+        <v>5.008269278653375</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.23701871096639</v>
+        <v>7.57729178900305</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.49319195985865</v>
+        <v>32.10128518403075</v>
       </c>
       <c r="C21">
-        <v>14.17774801008754</v>
+        <v>23.39146922473408</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.14274758342711</v>
+        <v>39.62528303071714</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>12.66891203578207</v>
+        <v>15.00745098199056</v>
       </c>
       <c r="H21">
-        <v>10.04099727936591</v>
+        <v>4.922131742756532</v>
       </c>
       <c r="I21">
-        <v>13.12638129118179</v>
+        <v>4.355875027001892</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.10067955436983</v>
+        <v>8.081151328816093</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.11538925927481</v>
+        <v>33.22447898185574</v>
       </c>
       <c r="C22">
-        <v>14.59125382119352</v>
+        <v>24.17779802349994</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.89891866981113</v>
+        <v>41.2674337060422</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>12.63756133782923</v>
+        <v>15.84171460468926</v>
       </c>
       <c r="H22">
-        <v>9.989950764033614</v>
+        <v>4.861519767499995</v>
       </c>
       <c r="I22">
-        <v>13.00481749407803</v>
+        <v>3.932070601872602</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.01700274412497</v>
+        <v>8.543821225324329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.78606191501423</v>
+        <v>32.62937937113306</v>
       </c>
       <c r="C23">
-        <v>14.37215720727207</v>
+        <v>23.76102575767806</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.49858157779473</v>
+        <v>40.39469172503586</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>12.65300598141578</v>
+        <v>15.39478149186178</v>
       </c>
       <c r="H23">
-        <v>10.01697290980718</v>
+        <v>4.89244348224347</v>
       </c>
       <c r="I23">
-        <v>13.06931750755024</v>
+        <v>4.158070119864935</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.06116196366763</v>
+        <v>8.296601463681188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.47830686399793</v>
+        <v>30.27903737479674</v>
       </c>
       <c r="C24">
-        <v>13.50746807249492</v>
+        <v>22.11852044611319</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.91087620750696</v>
+        <v>37.00460654204697</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>12.73947789700916</v>
+        <v>13.73976856637617</v>
       </c>
       <c r="H24">
-        <v>10.12419184797679</v>
+        <v>5.03903751986738</v>
       </c>
       <c r="I24">
-        <v>13.32198909296829</v>
+        <v>5.018984948863755</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.23933788390448</v>
+        <v>7.576021881830195</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.93830940449256</v>
+        <v>27.53487426131807</v>
       </c>
       <c r="C25">
-        <v>12.50200977734833</v>
+        <v>20.20914505339747</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.04433547837734</v>
+        <v>33.14750718520683</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>12.89036723027032</v>
+        <v>12.04445798571887</v>
       </c>
       <c r="H25">
-        <v>10.25021731566778</v>
+        <v>5.249247486205141</v>
       </c>
       <c r="I25">
-        <v>13.61258852132513</v>
+        <v>5.96266813350784</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.45445104844271</v>
+        <v>7.548322593818314</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.33210514120205</v>
+        <v>14.15392723893604</v>
       </c>
       <c r="C2">
-        <v>18.68460815842538</v>
+        <v>8.231398573727574</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11775418454421</v>
+        <v>8.941179012215711</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>11.06037584080626</v>
+        <v>18.73755186262604</v>
       </c>
       <c r="H2">
-        <v>5.439454159298877</v>
+        <v>2.295786774389669</v>
       </c>
       <c r="I2">
-        <v>6.674561214394677</v>
+        <v>3.219605411094618</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.671944268810487</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.34127058725762</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.726837376473</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.184779908333148</v>
       </c>
       <c r="O2">
-        <v>7.639172229305684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.50814451565527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72473362754212</v>
+        <v>13.24609066621868</v>
       </c>
       <c r="C3">
-        <v>17.57786362322034</v>
+        <v>8.132543673866145</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.93841949466695</v>
+        <v>8.714213253746493</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>10.5625378896217</v>
+        <v>18.94925840304755</v>
       </c>
       <c r="H3">
-        <v>5.586586763596507</v>
+        <v>2.456930582363809</v>
       </c>
       <c r="I3">
-        <v>7.16949678762102</v>
+        <v>3.34142613415859</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.76995160416204</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.5280745859</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.13653612900836</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.919060171202513</v>
       </c>
       <c r="O3">
-        <v>7.758678005413023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.67582675672589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.68119420431086</v>
+        <v>12.65399563950693</v>
       </c>
       <c r="C4">
-        <v>16.86243108641396</v>
+        <v>8.071506267496369</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.53584541599925</v>
+        <v>8.570607213782894</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>10.30776151734841</v>
+        <v>19.09028012648484</v>
       </c>
       <c r="H4">
-        <v>5.684846362164638</v>
+        <v>2.559626038595151</v>
       </c>
       <c r="I4">
-        <v>7.480093464335336</v>
+        <v>3.41973365935906</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.832329583245926</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.64613406829466</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.75736572788931</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.750869402314422</v>
       </c>
       <c r="O4">
-        <v>7.856774330136967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.78362014893821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.24171744202326</v>
+        <v>12.40164468398197</v>
       </c>
       <c r="C5">
-        <v>16.56195430723625</v>
+        <v>8.049016278977899</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.94776366221642</v>
+        <v>8.508457300296451</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>10.216735187924</v>
+        <v>19.14046110704244</v>
       </c>
       <c r="H5">
-        <v>5.726739698835659</v>
+        <v>2.60270821029814</v>
       </c>
       <c r="I5">
-        <v>7.608424898331788</v>
+        <v>3.455163856957363</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.856751114631997</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.69134289912525</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.60039735949303</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.681728645679653</v>
       </c>
       <c r="O5">
-        <v>7.902406274267845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.82483101636111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.16788415655417</v>
+        <v>12.35635049794356</v>
       </c>
       <c r="C6">
-        <v>16.51152421406219</v>
+        <v>8.048334401874758</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.84910644612912</v>
+        <v>8.49488026626671</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>10.2023891021703</v>
+        <v>19.13681633701919</v>
       </c>
       <c r="H6">
-        <v>5.733804143509134</v>
+        <v>2.610260118445977</v>
       </c>
       <c r="I6">
-        <v>7.629842685955557</v>
+        <v>3.464478701615676</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.858948729025558</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.69433380930612</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.57609979910015</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.670903011830238</v>
       </c>
       <c r="O6">
-        <v>7.910309229925811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.82697648371818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.67532483963548</v>
+        <v>12.64298996124745</v>
       </c>
       <c r="C7">
-        <v>16.85841477259324</v>
+        <v>8.079582455238068</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.5279816368374</v>
+        <v>8.561134838857184</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>10.30648224434147</v>
+        <v>19.05777576632047</v>
       </c>
       <c r="H7">
-        <v>5.685404024566794</v>
+        <v>2.561112451902087</v>
       </c>
       <c r="I7">
-        <v>7.481816961825818</v>
+        <v>3.42912653407497</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.827509193659553</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.63429190878079</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.7606803049188</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.751903365562095</v>
       </c>
       <c r="O7">
-        <v>7.857367554636695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.77115974346673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.78962999001225</v>
+        <v>13.83876779046418</v>
       </c>
       <c r="C8">
-        <v>18.31049634011424</v>
+        <v>8.208663294854029</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.37950183937228</v>
+        <v>8.852835885561285</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>10.8782175985011</v>
+        <v>18.76421748583688</v>
       </c>
       <c r="H8">
-        <v>5.48845208279272</v>
+        <v>2.351693343438836</v>
       </c>
       <c r="I8">
-        <v>6.843870167873854</v>
+        <v>3.272190374483753</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.698538093000074</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.38864746602906</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.5336537566015</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.096758486240364</v>
       </c>
       <c r="O8">
-        <v>7.674904580781246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.54778701348194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.487415094354</v>
+        <v>15.9212117059581</v>
       </c>
       <c r="C9">
-        <v>20.87077133077577</v>
+        <v>8.444078178735886</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.47516840479386</v>
+        <v>9.403646977631173</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>12.60241766504672</v>
+        <v>18.34169783956562</v>
       </c>
       <c r="H9">
-        <v>5.172360867110775</v>
+        <v>1.968855181322776</v>
       </c>
       <c r="I9">
-        <v>5.642396187628341</v>
+        <v>2.977454948382519</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.472346512765288</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.95572944864384</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.90392096058093</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.726882617768623</v>
       </c>
       <c r="O9">
-        <v>7.538900036399923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.17263886080925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.93327793691144</v>
+        <v>17.26065902084714</v>
       </c>
       <c r="C10">
-        <v>22.57512763305154</v>
+        <v>8.652251229203937</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.93962501468739</v>
+        <v>9.614203896838799</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>14.18240773232239</v>
+        <v>17.92079740799505</v>
       </c>
       <c r="H10">
-        <v>4.994659308802426</v>
+        <v>1.73748508992103</v>
       </c>
       <c r="I10">
-        <v>4.784336132081243</v>
+        <v>2.787534887984435</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.291241093942412</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.59498593545068</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.84098732180107</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.030224191006678</v>
       </c>
       <c r="O10">
-        <v>7.61788959153585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.85552281149947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.98796807771446</v>
+        <v>17.64537540523358</v>
       </c>
       <c r="C11">
-        <v>23.31220721271492</v>
+        <v>9.090672330888721</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.46078902161963</v>
+        <v>8.377520183096934</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>14.92548758818459</v>
+        <v>16.35085702640428</v>
       </c>
       <c r="H11">
-        <v>4.928764639870613</v>
+        <v>2.772095822020243</v>
       </c>
       <c r="I11">
-        <v>4.397985671914157</v>
+        <v>2.758560926376459</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.009049757952551</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.99990427485418</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.38737441002221</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.064846608408646</v>
       </c>
       <c r="O11">
-        <v>8.035404682812038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.18772867545482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.37910134212385</v>
+        <v>17.70704502985984</v>
       </c>
       <c r="C12">
-        <v>23.58584840963069</v>
+        <v>9.461467089775393</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.02946560029962</v>
+        <v>7.494594099683678</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>15.21011974278745</v>
+        <v>15.22888223016991</v>
       </c>
       <c r="H12">
-        <v>4.906258627479826</v>
+        <v>4.162758476638507</v>
       </c>
       <c r="I12">
-        <v>4.252135414285703</v>
+        <v>2.752479219543319</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.82779969095542</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.65127127572367</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.65394971712808</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.225874490139394</v>
       </c>
       <c r="O12">
-        <v>8.194031444616279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.7406217207174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.2952295825663</v>
+        <v>17.51737512276458</v>
       </c>
       <c r="C13">
-        <v>23.52715783647086</v>
+        <v>9.80863029010027</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.90730896045569</v>
+        <v>6.884030245933753</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>15.14867772341007</v>
+        <v>14.36136478055273</v>
       </c>
       <c r="H13">
-        <v>4.910991799703838</v>
+        <v>5.58815160549058</v>
       </c>
       <c r="I13">
-        <v>4.283528793521802</v>
+        <v>2.778867124755953</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.706753365911554</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.4570792699791</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.73498318533068</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.445390056646944</v>
       </c>
       <c r="O13">
-        <v>8.159845007318207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.42305484332773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.02031180468008</v>
+        <v>17.26647077109893</v>
       </c>
       <c r="C14">
-        <v>23.3348293722215</v>
+        <v>10.04952282471373</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.5077185446939</v>
+        <v>6.657308856246118</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>14.94884050108275</v>
+        <v>13.89862326020114</v>
       </c>
       <c r="H14">
-        <v>4.92686220042417</v>
+        <v>6.596485521000596</v>
       </c>
       <c r="I14">
-        <v>4.38597814716853</v>
+        <v>2.814805307637535</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.651131159588141</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.40043101512722</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.71022295571881</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.953296854914237</v>
       </c>
       <c r="O14">
-        <v>8.048444510673745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.26682915824504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.85084417816034</v>
+        <v>17.1481070774709</v>
       </c>
       <c r="C15">
-        <v>23.21631061574269</v>
+        <v>10.1024482799712</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.26201676179105</v>
+        <v>6.631754469349513</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>14.82685120506261</v>
+        <v>13.82769967092742</v>
       </c>
       <c r="H15">
-        <v>4.936911309328274</v>
+        <v>6.830744560178938</v>
       </c>
       <c r="I15">
-        <v>4.448786476382907</v>
+        <v>2.835473196264279</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.647952503362311</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.41027207668749</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.66579812904716</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.842471787448179</v>
       </c>
       <c r="O15">
-        <v>7.980276579356302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.25023792306806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.86319180612807</v>
+        <v>16.62186822451367</v>
       </c>
       <c r="C16">
-        <v>22.52618997092582</v>
+        <v>9.948530718449554</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.83915392111643</v>
+        <v>6.641630753971589</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>14.13431103620077</v>
+        <v>14.19713303829219</v>
       </c>
       <c r="H16">
-        <v>4.999291142908674</v>
+        <v>6.626213565525776</v>
       </c>
       <c r="I16">
-        <v>4.80965514070024</v>
+        <v>2.917502567820971</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.747992401693931</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.59780400720441</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.27271982670949</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.842552491849891</v>
       </c>
       <c r="O16">
-        <v>7.604629083847464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.45047729706984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.24250932939376</v>
+        <v>16.34910513551427</v>
       </c>
       <c r="C17">
-        <v>22.09304135549488</v>
+        <v>9.696211425235111</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.952588087717</v>
+        <v>6.733381673357172</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>13.71547605518131</v>
+        <v>14.70216928779736</v>
       </c>
       <c r="H17">
-        <v>5.041588607590874</v>
+        <v>5.901630059434146</v>
       </c>
       <c r="I17">
-        <v>5.031974326733674</v>
+        <v>2.962110630772195</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.852711535494998</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.76588527706114</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.97895389893238</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.093626628922808</v>
       </c>
       <c r="O17">
-        <v>7.57451080982539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.68080994988862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.8800497301141</v>
+        <v>16.27749073423236</v>
       </c>
       <c r="C18">
-        <v>21.84030390380295</v>
+        <v>9.339662364176572</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.43746260358768</v>
+        <v>7.094780193325552</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>13.47687211007352</v>
+        <v>15.46158773337821</v>
       </c>
       <c r="H18">
-        <v>5.067303668047597</v>
+        <v>4.675342551378672</v>
       </c>
       <c r="I18">
-        <v>5.160229396112022</v>
+        <v>2.967152165598041</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.983233163179569</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.97475766703481</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.73926876949282</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.65441872647801</v>
       </c>
       <c r="O18">
-        <v>7.561260746067479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.99153680631254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.756387301799</v>
+        <v>16.36348305685543</v>
       </c>
       <c r="C19">
-        <v>21.75411223821466</v>
+        <v>8.990874947030122</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.26214229851886</v>
+        <v>7.866167651877872</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>13.39648933595556</v>
+        <v>16.41453485501107</v>
       </c>
       <c r="H19">
-        <v>5.076239933612644</v>
+        <v>3.241492815956387</v>
       </c>
       <c r="I19">
-        <v>5.20372364870245</v>
+        <v>2.956107372342803</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.12917524998384</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.23900279497965</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.57472804764553</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.49047233335239</v>
       </c>
       <c r="O19">
-        <v>7.557458687313584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.35936243251336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.309146547127</v>
+        <v>16.90054622604637</v>
       </c>
       <c r="C20">
-        <v>22.13952341243025</v>
+        <v>8.627293379143012</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.04749867589832</v>
+        <v>9.529201884161395</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>13.75982603308229</v>
+        <v>17.91683070677722</v>
       </c>
       <c r="H20">
-        <v>5.036940393592266</v>
+        <v>1.798659922603468</v>
       </c>
       <c r="I20">
-        <v>5.008269278653375</v>
+        <v>2.866812395810723</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.32156893771019</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.64902428294007</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.61596764996673</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.95131340485441</v>
       </c>
       <c r="O20">
-        <v>7.57729178900305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.89445788203851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.10128518403075</v>
+        <v>17.91423206439953</v>
       </c>
       <c r="C21">
-        <v>23.39146922473408</v>
+        <v>8.731250193008186</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.62528303071714</v>
+        <v>9.945774683181142</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>15.00745098199056</v>
+        <v>17.88679122358656</v>
       </c>
       <c r="H21">
-        <v>4.922131742756532</v>
+        <v>1.577712841332415</v>
       </c>
       <c r="I21">
-        <v>4.355875027001892</v>
+        <v>2.713501602340366</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.225843902294152</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.46750491434697</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.279380638994</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.37687625182765</v>
       </c>
       <c r="O21">
-        <v>8.081151328816093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.76342881810745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.22447898185574</v>
+        <v>18.54283060712976</v>
       </c>
       <c r="C22">
-        <v>24.17779802349994</v>
+        <v>8.804227946505138</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.2674337060422</v>
+        <v>10.13698174976704</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>15.84171460468926</v>
+        <v>17.84411630857637</v>
       </c>
       <c r="H22">
-        <v>4.861519767499995</v>
+        <v>1.667919144919031</v>
       </c>
       <c r="I22">
-        <v>3.932070601872602</v>
+        <v>2.605952522380305</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.159985292950443</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.34098144138324</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.69881184969777</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.579226968563937</v>
       </c>
       <c r="O22">
-        <v>8.543821225324329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.66904801378281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.62937937113306</v>
+        <v>18.21657971719588</v>
       </c>
       <c r="C23">
-        <v>23.76102575767806</v>
+        <v>8.754759822327905</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.39469172503586</v>
+        <v>10.04395284435949</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>15.39478149186178</v>
+        <v>17.90464459539886</v>
       </c>
       <c r="H23">
-        <v>4.89244348224347</v>
+        <v>1.60271510992849</v>
       </c>
       <c r="I23">
-        <v>4.158070119864935</v>
+        <v>2.651033695089165</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.200826013038091</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.42254062827838</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.47135239211986</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.469819344026616</v>
       </c>
       <c r="O23">
-        <v>8.296601463681188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.73414165865608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.27903737479674</v>
+        <v>16.91123311991669</v>
       </c>
       <c r="C24">
-        <v>22.11852044611319</v>
+        <v>8.583593593120579</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.00460654204697</v>
+        <v>9.668392268592338</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>13.73976856637617</v>
+        <v>18.1037143327615</v>
       </c>
       <c r="H24">
-        <v>5.03903751986738</v>
+        <v>1.777451666212276</v>
       </c>
       <c r="I24">
-        <v>5.018984948863755</v>
+        <v>2.846995114898989</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.35070799646067</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.7155728890147</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.5844329974812</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.046336466748434</v>
       </c>
       <c r="O24">
-        <v>7.576021881830195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.9683079791213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.53487426131807</v>
+        <v>15.37565222643591</v>
       </c>
       <c r="C25">
-        <v>20.20914505339747</v>
+        <v>8.396435122745281</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.14750718520683</v>
+        <v>9.244526956320334</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>12.04445798571887</v>
+        <v>18.38499729542792</v>
       </c>
       <c r="H25">
-        <v>5.249247486205141</v>
+        <v>2.070738930329117</v>
       </c>
       <c r="I25">
-        <v>5.96266813350784</v>
+        <v>3.070563990326534</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.52252045579184</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.04789362131678</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.55700587028379</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.564627716959066</v>
       </c>
       <c r="O25">
-        <v>7.548322593818314</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.2463272165058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15392723893604</v>
+        <v>14.16529055161176</v>
       </c>
       <c r="C2">
-        <v>8.231398573727574</v>
+        <v>7.872098651454941</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.941179012215711</v>
+        <v>8.83622348183531</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>18.73755186262604</v>
+        <v>17.54080439478349</v>
       </c>
       <c r="H2">
-        <v>2.295786774389669</v>
+        <v>2.188482593599043</v>
       </c>
       <c r="I2">
-        <v>3.219605411094618</v>
+        <v>3.085812404956807</v>
       </c>
       <c r="J2">
-        <v>8.671944268810487</v>
+        <v>8.863813071635313</v>
       </c>
       <c r="K2">
-        <v>14.34127058725762</v>
+        <v>13.9210537344149</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.43947072846206</v>
       </c>
       <c r="M2">
-        <v>11.726837376473</v>
+        <v>9.09328950719309</v>
       </c>
       <c r="N2">
-        <v>7.184779908333148</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.7820863737</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.279343304218449</v>
       </c>
       <c r="Q2">
-        <v>13.50814451565527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.20880749533255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24609066621868</v>
+        <v>13.27908048238539</v>
       </c>
       <c r="C3">
-        <v>8.132543673866145</v>
+        <v>7.726928537808135</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.714213253746493</v>
+        <v>8.627719046050984</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>18.94925840304755</v>
+        <v>17.83331528839075</v>
       </c>
       <c r="H3">
-        <v>2.456930582363809</v>
+        <v>2.339245298258215</v>
       </c>
       <c r="I3">
-        <v>3.34142613415859</v>
+        <v>3.19448141438866</v>
       </c>
       <c r="J3">
-        <v>8.76995160416204</v>
+        <v>8.934941468820361</v>
       </c>
       <c r="K3">
-        <v>14.5280745859</v>
+        <v>14.11197117260914</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.61823499350502</v>
       </c>
       <c r="M3">
-        <v>11.13653612900836</v>
+        <v>9.24763000025855</v>
       </c>
       <c r="N3">
-        <v>6.919060171202513</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.18278284868649</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.017304256622449</v>
       </c>
       <c r="Q3">
-        <v>13.67582675672589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.38685037715301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65399563950693</v>
+        <v>12.70138516638104</v>
       </c>
       <c r="C4">
-        <v>8.071506267496369</v>
+        <v>7.637712612917024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.570607213782894</v>
+        <v>8.49560834875124</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.09028012648484</v>
+        <v>18.02385495698643</v>
       </c>
       <c r="H4">
-        <v>2.559626038595151</v>
+        <v>2.435355436189789</v>
       </c>
       <c r="I4">
-        <v>3.41973365935906</v>
+        <v>3.264631931452483</v>
       </c>
       <c r="J4">
-        <v>8.832329583245926</v>
+        <v>8.979739059389614</v>
       </c>
       <c r="K4">
-        <v>14.64613406829466</v>
+        <v>14.23184685845925</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.73337771190157</v>
       </c>
       <c r="M4">
-        <v>10.75736572788931</v>
+        <v>9.356094483153942</v>
       </c>
       <c r="N4">
-        <v>6.750869402314422</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.7979843179154</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.851789971593293</v>
       </c>
       <c r="Q4">
-        <v>13.78362014893821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.50012971518194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.40164468398197</v>
+        <v>12.45526372517739</v>
       </c>
       <c r="C5">
-        <v>8.049016278977899</v>
+        <v>7.604185933330701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.508457300296451</v>
+        <v>8.438247074567215</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.14046110704244</v>
+        <v>18.09435421464167</v>
       </c>
       <c r="H5">
-        <v>2.60270821029814</v>
+        <v>2.475694392163636</v>
       </c>
       <c r="I5">
-        <v>3.455163856957363</v>
+        <v>3.297180196364681</v>
       </c>
       <c r="J5">
-        <v>8.856751114631997</v>
+        <v>8.996736228472827</v>
       </c>
       <c r="K5">
-        <v>14.69134289912525</v>
+        <v>14.2777760864962</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.77761896044061</v>
       </c>
       <c r="M5">
-        <v>10.60039735949303</v>
+        <v>9.402363459661659</v>
       </c>
       <c r="N5">
-        <v>6.681728645679653</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.63867026352721</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.783822021126877</v>
       </c>
       <c r="Q5">
-        <v>13.82483101636111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.54348464853405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35635049794356</v>
+        <v>12.41110282581597</v>
       </c>
       <c r="C6">
-        <v>8.048334401874758</v>
+        <v>7.602126641773172</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.49488026626671</v>
+        <v>8.42555652164264</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.13681633701919</v>
+        <v>18.09430199009865</v>
       </c>
       <c r="H6">
-        <v>2.610260118445977</v>
+        <v>2.482780800519259</v>
       </c>
       <c r="I6">
-        <v>3.464478701615676</v>
+        <v>3.30662589768593</v>
       </c>
       <c r="J6">
-        <v>8.858948729025558</v>
+        <v>8.99769314651509</v>
       </c>
       <c r="K6">
-        <v>14.69433380930612</v>
+        <v>14.28106505223845</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.78014783462184</v>
       </c>
       <c r="M6">
-        <v>10.57609979910015</v>
+        <v>9.408646281549025</v>
       </c>
       <c r="N6">
-        <v>6.670903011830238</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.6139360794492</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.773165223790734</v>
       </c>
       <c r="Q6">
-        <v>13.82697648371818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.54612082914335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.64298996124745</v>
+        <v>12.69153681899565</v>
       </c>
       <c r="C7">
-        <v>8.079582455238068</v>
+        <v>7.644477910958815</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.561134838857184</v>
+        <v>8.486973922852105</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.05777576632047</v>
+        <v>18.03859288184468</v>
       </c>
       <c r="H7">
-        <v>2.561112451902087</v>
+        <v>2.437224230209253</v>
       </c>
       <c r="I7">
-        <v>3.42912653407497</v>
+        <v>3.276042111849404</v>
       </c>
       <c r="J7">
-        <v>8.827509193659553</v>
+        <v>8.954118042378379</v>
       </c>
       <c r="K7">
-        <v>14.63429190878079</v>
+        <v>14.21594665470135</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.71603438951877</v>
       </c>
       <c r="M7">
-        <v>10.7606803049188</v>
+        <v>9.350010732008297</v>
       </c>
       <c r="N7">
-        <v>6.751903365562095</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.79988508040369</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.852249731258604</v>
       </c>
       <c r="Q7">
-        <v>13.77115974346673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.4811158312321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.83876779046418</v>
+        <v>13.86028168402901</v>
       </c>
       <c r="C8">
-        <v>8.208663294854029</v>
+        <v>7.827326261750183</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.852835885561285</v>
+        <v>8.756382764545695</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>18.76421748583688</v>
+        <v>17.75406307653702</v>
       </c>
       <c r="H8">
-        <v>2.351693343438836</v>
+        <v>2.242165603282547</v>
       </c>
       <c r="I8">
-        <v>3.272190374483753</v>
+        <v>3.137307402521865</v>
       </c>
       <c r="J8">
-        <v>8.698538093000074</v>
+        <v>8.815250514185351</v>
       </c>
       <c r="K8">
-        <v>14.38864746602906</v>
+        <v>13.95607116786815</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.47059424091541</v>
       </c>
       <c r="M8">
-        <v>11.5336537566015</v>
+        <v>9.127253345105588</v>
       </c>
       <c r="N8">
-        <v>7.096758486240364</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.58181285563632</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.19084032989572</v>
       </c>
       <c r="Q8">
-        <v>13.54778701348194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.2298921883909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9212117059581</v>
+        <v>15.8945965706159</v>
       </c>
       <c r="C9">
-        <v>8.444078178735886</v>
+        <v>8.17570304201613</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.403646977631173</v>
+        <v>9.262671661611975</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>18.34169783956562</v>
+        <v>17.17830313600345</v>
       </c>
       <c r="H9">
-        <v>1.968855181322776</v>
+        <v>1.884314320985726</v>
       </c>
       <c r="I9">
-        <v>2.977454948382519</v>
+        <v>2.873438935924784</v>
       </c>
       <c r="J9">
-        <v>8.472346512765288</v>
+        <v>8.632042800364879</v>
       </c>
       <c r="K9">
-        <v>13.95572944864384</v>
+        <v>13.50446520506588</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.07012106378064</v>
       </c>
       <c r="M9">
-        <v>12.90392096058093</v>
+        <v>8.82048409079607</v>
       </c>
       <c r="N9">
-        <v>7.726882617768623</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.97323053604281</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.813780194488763</v>
       </c>
       <c r="Q9">
-        <v>13.17263886080925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.816865448034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.26065902084714</v>
+        <v>17.21026453170711</v>
       </c>
       <c r="C10">
-        <v>8.652251229203937</v>
+        <v>8.455838331599004</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.614203896838799</v>
+        <v>9.450255398358003</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>17.92079740799505</v>
+        <v>16.95820367247908</v>
       </c>
       <c r="H10">
-        <v>1.73748508992103</v>
+        <v>1.672375870853176</v>
       </c>
       <c r="I10">
-        <v>2.787534887984435</v>
+        <v>2.708409122223319</v>
       </c>
       <c r="J10">
-        <v>8.291241093942412</v>
+        <v>8.380150230000734</v>
       </c>
       <c r="K10">
-        <v>13.59498593545068</v>
+        <v>13.11301718528247</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.75418223690111</v>
       </c>
       <c r="M10">
-        <v>13.84098732180107</v>
+        <v>8.604036465893005</v>
       </c>
       <c r="N10">
-        <v>8.030224191006678</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.91680915131797</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.110613925916153</v>
       </c>
       <c r="Q10">
-        <v>12.85552281149947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.43700541480125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.64537540523358</v>
+        <v>17.61804345854553</v>
       </c>
       <c r="C11">
-        <v>9.090672330888721</v>
+        <v>8.901475603071795</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.377520183096934</v>
+        <v>8.247752678998658</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>16.35085702640428</v>
+        <v>16.06431957507209</v>
       </c>
       <c r="H11">
-        <v>2.772095822020243</v>
+        <v>2.73597742019637</v>
       </c>
       <c r="I11">
-        <v>2.758560926376459</v>
+        <v>2.692622472997997</v>
       </c>
       <c r="J11">
-        <v>8.009049757952551</v>
+        <v>8.041274584687299</v>
       </c>
       <c r="K11">
-        <v>12.99990427485418</v>
+        <v>12.57147848424585</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.39784193070292</v>
       </c>
       <c r="M11">
-        <v>14.38737441002221</v>
+        <v>8.168379171255369</v>
       </c>
       <c r="N11">
-        <v>7.064846608408646</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.43689103699761</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.134098346688581</v>
       </c>
       <c r="Q11">
-        <v>12.18772867545482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.77071046871273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.70704502985984</v>
+        <v>17.70152313486501</v>
       </c>
       <c r="C12">
-        <v>9.461467089775393</v>
+        <v>9.250068713770576</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.494594099683678</v>
+        <v>7.390783249397225</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>15.22888223016991</v>
+        <v>15.21360334697995</v>
       </c>
       <c r="H12">
-        <v>4.162758476638507</v>
+        <v>4.139115356277962</v>
       </c>
       <c r="I12">
-        <v>2.752479219543319</v>
+        <v>2.688771461208825</v>
       </c>
       <c r="J12">
-        <v>7.82779969095542</v>
+        <v>7.93131717329333</v>
       </c>
       <c r="K12">
-        <v>12.65127127572367</v>
+        <v>12.28910758816426</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.24155169335938</v>
       </c>
       <c r="M12">
-        <v>14.65394971712808</v>
+        <v>7.903296018491973</v>
       </c>
       <c r="N12">
-        <v>6.225874490139394</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.68272856131339</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.289364966144312</v>
       </c>
       <c r="Q12">
-        <v>11.7406217207174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.36773475930222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.51737512276458</v>
+        <v>17.53307325103992</v>
       </c>
       <c r="C13">
-        <v>9.80863029010027</v>
+        <v>9.565586662600071</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.884030245933753</v>
+        <v>6.800055582795789</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>14.36136478055273</v>
+        <v>14.21126661665404</v>
       </c>
       <c r="H13">
-        <v>5.58815160549058</v>
+        <v>5.56907750269806</v>
       </c>
       <c r="I13">
-        <v>2.778867124755953</v>
+        <v>2.711293975659764</v>
       </c>
       <c r="J13">
-        <v>7.706753365911554</v>
+        <v>7.911126916527215</v>
       </c>
       <c r="K13">
-        <v>12.4570792699791</v>
+        <v>12.16494583158907</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.18472509301031</v>
       </c>
       <c r="M13">
-        <v>14.73498318533068</v>
+        <v>7.758012415261136</v>
       </c>
       <c r="N13">
-        <v>5.445390056646944</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.7476825370258</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.508502623200439</v>
       </c>
       <c r="Q13">
-        <v>11.42305484332773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.12925498926661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.26647077109893</v>
+        <v>17.29716460436253</v>
       </c>
       <c r="C14">
-        <v>10.04952282471373</v>
+        <v>9.780302143835048</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.657308856246118</v>
+        <v>6.583256641697494</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>13.89862326020114</v>
+        <v>13.50939707905877</v>
       </c>
       <c r="H14">
-        <v>6.596485521000596</v>
+        <v>6.578771565625331</v>
       </c>
       <c r="I14">
-        <v>2.814805307637535</v>
+        <v>2.742421687078181</v>
       </c>
       <c r="J14">
-        <v>7.651131159588141</v>
+        <v>7.914629681442962</v>
       </c>
       <c r="K14">
-        <v>12.40043101512722</v>
+        <v>12.14770810213751</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.18042028688385</v>
       </c>
       <c r="M14">
-        <v>14.71022295571881</v>
+        <v>7.719034616458675</v>
       </c>
       <c r="N14">
-        <v>4.953296854914237</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.71341482525445</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.019146158335987</v>
       </c>
       <c r="Q14">
-        <v>11.26682915824504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.0334664959877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.1481070774709</v>
+        <v>17.18258977905215</v>
       </c>
       <c r="C15">
-        <v>10.1024482799712</v>
+        <v>9.827118554543254</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.631754469349513</v>
+        <v>6.560119069217222</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>13.82769967092742</v>
+        <v>13.33369847564299</v>
       </c>
       <c r="H15">
-        <v>6.830744560178938</v>
+        <v>6.81288509949672</v>
       </c>
       <c r="I15">
-        <v>2.835473196264279</v>
+        <v>2.761397740966876</v>
       </c>
       <c r="J15">
-        <v>7.647952503362311</v>
+        <v>7.92251966741125</v>
       </c>
       <c r="K15">
-        <v>12.41027207668749</v>
+        <v>12.16486220242016</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.18758765232662</v>
       </c>
       <c r="M15">
-        <v>14.66579812904716</v>
+        <v>7.730156213343474</v>
       </c>
       <c r="N15">
-        <v>4.842471787448179</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.66750993633186</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.909999177454585</v>
       </c>
       <c r="Q15">
-        <v>11.25023792306806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.03444051284304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62186822451367</v>
+        <v>16.65743961449196</v>
       </c>
       <c r="C16">
-        <v>9.948530718449554</v>
+        <v>9.677822188069007</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.641630753971589</v>
+        <v>6.576322476480424</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>14.19713303829219</v>
+        <v>13.35927381523358</v>
       </c>
       <c r="H16">
-        <v>6.626213565525776</v>
+        <v>6.603763384415648</v>
       </c>
       <c r="I16">
-        <v>2.917502567820971</v>
+        <v>2.831812987298923</v>
       </c>
       <c r="J16">
-        <v>7.747992401693931</v>
+        <v>8.029428571219615</v>
       </c>
       <c r="K16">
-        <v>12.59780400720441</v>
+        <v>12.34483290926019</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.2572219878668</v>
       </c>
       <c r="M16">
-        <v>14.27271982670949</v>
+        <v>7.900919883310757</v>
       </c>
       <c r="N16">
-        <v>4.842552491849891</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.28236966842938</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.917846450794791</v>
       </c>
       <c r="Q16">
-        <v>11.45047729706984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.26628168438807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.34910513551427</v>
+        <v>16.37825013168171</v>
       </c>
       <c r="C17">
-        <v>9.696211425235111</v>
+        <v>9.438065541987681</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.733381673357172</v>
+        <v>6.666996104178949</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>14.70216928779736</v>
+        <v>13.73473144528634</v>
       </c>
       <c r="H17">
-        <v>5.901630059434146</v>
+        <v>5.873914737783532</v>
       </c>
       <c r="I17">
-        <v>2.962110630772195</v>
+        <v>2.870589292505676</v>
       </c>
       <c r="J17">
-        <v>7.852711535494998</v>
+        <v>8.139998366402686</v>
       </c>
       <c r="K17">
-        <v>12.76588527706114</v>
+        <v>12.49701303634562</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.33235753390976</v>
       </c>
       <c r="M17">
-        <v>13.97895389893238</v>
+        <v>8.041883558712382</v>
       </c>
       <c r="N17">
-        <v>5.093626628922808</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.99864458123609</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.172465739024632</v>
       </c>
       <c r="Q17">
-        <v>11.68080994988862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.49454971392188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.27749073423236</v>
+        <v>16.29117939251742</v>
       </c>
       <c r="C18">
-        <v>9.339662364176572</v>
+        <v>9.102295084597792</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.094780193325552</v>
+        <v>7.015763570219456</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>15.46158773337821</v>
+        <v>14.40098713382949</v>
       </c>
       <c r="H18">
-        <v>4.675342551378672</v>
+        <v>4.639468004337959</v>
       </c>
       <c r="I18">
-        <v>2.967152165598041</v>
+        <v>2.871966891760741</v>
       </c>
       <c r="J18">
-        <v>7.983233163179569</v>
+        <v>8.263834321064872</v>
       </c>
       <c r="K18">
-        <v>12.97475766703481</v>
+        <v>12.67689087445669</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.44692219164218</v>
       </c>
       <c r="M18">
-        <v>13.73926876949282</v>
+        <v>8.195359464423369</v>
       </c>
       <c r="N18">
-        <v>5.65441872647801</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.77376609077666</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.734754028160551</v>
       </c>
       <c r="Q18">
-        <v>11.99153680631254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.77926894709902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.36348305685543</v>
+        <v>16.35544456569983</v>
       </c>
       <c r="C19">
-        <v>8.990874947030122</v>
+        <v>8.773278058768071</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.866167651877872</v>
+        <v>7.760996714769115</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>16.41453485501107</v>
+        <v>15.25494371386293</v>
       </c>
       <c r="H19">
-        <v>3.241492815956387</v>
+        <v>3.191771813767426</v>
       </c>
       <c r="I19">
-        <v>2.956107372342803</v>
+        <v>2.863271545685107</v>
       </c>
       <c r="J19">
-        <v>8.12917524998384</v>
+        <v>8.391164112677934</v>
       </c>
       <c r="K19">
-        <v>13.23900279497965</v>
+        <v>12.89442158365555</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.60285786796413</v>
       </c>
       <c r="M19">
-        <v>13.57472804764553</v>
+        <v>8.372728014990575</v>
       </c>
       <c r="N19">
-        <v>6.49047233335239</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.626869517979</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.572054459057354</v>
       </c>
       <c r="Q19">
-        <v>12.35936243251336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.1005534277605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.90054622604637</v>
+        <v>16.85438538487882</v>
       </c>
       <c r="C20">
-        <v>8.627293379143012</v>
+        <v>8.425795004559356</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.529201884161395</v>
+        <v>9.370112749358345</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>17.91683070677722</v>
+        <v>16.72064989627756</v>
       </c>
       <c r="H20">
-        <v>1.798659922603468</v>
+        <v>1.727195955723801</v>
       </c>
       <c r="I20">
-        <v>2.866812395810723</v>
+        <v>2.785683722968321</v>
       </c>
       <c r="J20">
-        <v>8.32156893771019</v>
+        <v>8.494037747137636</v>
       </c>
       <c r="K20">
-        <v>13.64902428294007</v>
+        <v>13.19508191746068</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.81970415381409</v>
       </c>
       <c r="M20">
-        <v>13.61596764996673</v>
+        <v>8.640709761268635</v>
       </c>
       <c r="N20">
-        <v>7.95131340485441</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.69319578543222</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.034557036964777</v>
       </c>
       <c r="Q20">
-        <v>12.89445788203851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.5206040004924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.91423206439953</v>
+        <v>17.85859892318036</v>
       </c>
       <c r="C21">
-        <v>8.731250193008186</v>
+        <v>8.539098666977726</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.945774683181142</v>
+        <v>9.773913457992114</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>17.88679122358656</v>
+        <v>17.84932262273758</v>
       </c>
       <c r="H21">
-        <v>1.577712841332415</v>
+        <v>1.593794312217094</v>
       </c>
       <c r="I21">
-        <v>2.713501602340366</v>
+        <v>2.657068099088838</v>
       </c>
       <c r="J21">
-        <v>8.225843902294152</v>
+        <v>8.081276008440238</v>
       </c>
       <c r="K21">
-        <v>13.46750491434697</v>
+        <v>12.89246837890484</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.5926014714828</v>
       </c>
       <c r="M21">
-        <v>14.279380638994</v>
+        <v>8.482393193180524</v>
       </c>
       <c r="N21">
-        <v>8.37687625182765</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.34745117100314</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.449236300893592</v>
       </c>
       <c r="Q21">
-        <v>12.76342881810745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.19466246869555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.54283060712976</v>
+        <v>18.48371163185664</v>
       </c>
       <c r="C22">
-        <v>8.804227946505138</v>
+        <v>8.615296586959238</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.13698174976704</v>
+        <v>9.961135931485368</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>17.84411630857637</v>
+        <v>18.73962032502849</v>
       </c>
       <c r="H22">
-        <v>1.667919144919031</v>
+        <v>1.705328456522658</v>
       </c>
       <c r="I22">
-        <v>2.605952522380305</v>
+        <v>2.562701417798559</v>
       </c>
       <c r="J22">
-        <v>8.159985292950443</v>
+        <v>7.900520820743237</v>
       </c>
       <c r="K22">
-        <v>13.34098144138324</v>
+        <v>12.68267615989079</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.44662759017881</v>
       </c>
       <c r="M22">
-        <v>14.69881184969777</v>
+        <v>8.373900152205058</v>
       </c>
       <c r="N22">
-        <v>8.579226968563937</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.75932597730607</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.644342939926977</v>
       </c>
       <c r="Q22">
-        <v>12.66904801378281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.96283245182475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.21657971719588</v>
+        <v>18.15735508887337</v>
       </c>
       <c r="C23">
-        <v>8.754759822327905</v>
+        <v>8.567776205513352</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.04395284435949</v>
+        <v>9.868057868599861</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>17.90464459539886</v>
+        <v>18.14523821442535</v>
       </c>
       <c r="H23">
-        <v>1.60271510992849</v>
+        <v>1.647429096402301</v>
       </c>
       <c r="I23">
-        <v>2.651033695089165</v>
+        <v>2.597815744316473</v>
       </c>
       <c r="J23">
-        <v>8.200826013038091</v>
+        <v>8.006544970568626</v>
       </c>
       <c r="K23">
-        <v>13.42254062827838</v>
+        <v>12.81707463775295</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.53665665918005</v>
       </c>
       <c r="M23">
-        <v>14.47135239211986</v>
+        <v>8.453009042877552</v>
       </c>
       <c r="N23">
-        <v>8.469819344026616</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.53828462965048</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.539798588953589</v>
       </c>
       <c r="Q23">
-        <v>12.73414165865608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.11767531058528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.91123311991669</v>
+        <v>16.86259938516088</v>
       </c>
       <c r="C24">
-        <v>8.583593593120579</v>
+        <v>8.377234538132862</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.668392268592338</v>
+        <v>9.505340463153068</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>18.1037143327615</v>
+        <v>16.8865006512163</v>
       </c>
       <c r="H24">
-        <v>1.777451666212276</v>
+        <v>1.705746484527983</v>
       </c>
       <c r="I24">
-        <v>2.846995114898989</v>
+        <v>2.762380783814404</v>
       </c>
       <c r="J24">
-        <v>8.35070799646067</v>
+        <v>8.521152494058773</v>
       </c>
       <c r="K24">
-        <v>13.7155728890147</v>
+        <v>13.25184881747596</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.86034921307056</v>
       </c>
       <c r="M24">
-        <v>13.5844329974812</v>
+        <v>8.687033206646211</v>
       </c>
       <c r="N24">
-        <v>8.046336466748434</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.66361043892371</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.130210850647558</v>
       </c>
       <c r="Q24">
-        <v>12.9683079791213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.58706065731125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.37565222643591</v>
+        <v>15.3604947610453</v>
       </c>
       <c r="C25">
-        <v>8.396435122745281</v>
+        <v>8.103889856549666</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.244526956320334</v>
+        <v>9.115034967849807</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>18.38499729542792</v>
+        <v>17.19416040040646</v>
       </c>
       <c r="H25">
-        <v>2.070738930329117</v>
+        <v>1.979044396414461</v>
       </c>
       <c r="I25">
-        <v>3.070563990326534</v>
+        <v>2.960748033724347</v>
       </c>
       <c r="J25">
-        <v>8.52252045579184</v>
+        <v>8.69995547056801</v>
       </c>
       <c r="K25">
-        <v>14.04789362131678</v>
+        <v>13.6107172107161</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.16247885107944</v>
       </c>
       <c r="M25">
-        <v>12.55700587028379</v>
+        <v>8.881311681980938</v>
       </c>
       <c r="N25">
-        <v>7.564627716959066</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.62210028872016</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.653659810306373</v>
       </c>
       <c r="Q25">
-        <v>13.2463272165058</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.91300571089231</v>
       </c>
     </row>
   </sheetData>
